--- a/04 ЭОМ СС/спецификация.xlsx
+++ b/04 ЭОМ СС/спецификация.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="329" uniqueCount="191">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="572" uniqueCount="300">
   <si>
     <t xml:space="preserve">Позиция</t>
   </si>
@@ -360,9 +360,6 @@
     <t xml:space="preserve">VALTEC</t>
   </si>
   <si>
-    <t xml:space="preserve">+</t>
-  </si>
-  <si>
     <t xml:space="preserve">Детектор углекислого газа</t>
   </si>
   <si>
@@ -595,6 +592,336 @@
   </si>
   <si>
     <t xml:space="preserve">2273-244</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Щит</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WR-профиль вертикальный, длина 1050 мм</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ZW373</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WR-перемычка, ширина 3 GU (750 мм)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ZW166</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Винт крепежный под шлиц, 20 шт.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ZB28P20</t>
+  </si>
+  <si>
+    <t xml:space="preserve">к-т</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Модуль Combiline-M для устройств на DIN-рейку, 750х450 мм, расстояние 125 мм</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MBG303</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Модуль Combiline-M для клемм, 750х450 мм</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MBK308</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Держатель проводки 28,5 мм, 50 шт.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ED44P50</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Выключатель-рубильник</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SD202/63</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Расцепитель независимый</t>
+  </si>
+  <si>
+    <t xml:space="preserve">S2C-A1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Прибор комбинированный</t>
+  </si>
+  <si>
+    <t xml:space="preserve">P94-ML-1-0,5-RS485</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OMIX</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Трансформатор тока</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TRFM/60</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Устройство защитное</t>
+  </si>
+  <si>
+    <t xml:space="preserve">УЗМ51-МД</t>
+  </si>
+  <si>
+    <t xml:space="preserve">«Меандр»</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Выключатель автоматический</t>
+  </si>
+  <si>
+    <t xml:space="preserve">S201-B10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">S201-B16</t>
+  </si>
+  <si>
+    <t xml:space="preserve">S201-C10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">S201-C16</t>
+  </si>
+  <si>
+    <t xml:space="preserve">S201-C20</t>
+  </si>
+  <si>
+    <t xml:space="preserve">S201-C32</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Устройство защитного отключения</t>
+  </si>
+  <si>
+    <t xml:space="preserve">F202 A S-63/0.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">F202 A-16/0.01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">F202 A-25/0.03</t>
+  </si>
+  <si>
+    <t xml:space="preserve">F202 A-40/0.03</t>
+  </si>
+  <si>
+    <t xml:space="preserve">F202 A-63/0.03</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Реле блокировочное</t>
+  </si>
+  <si>
+    <t xml:space="preserve">E290-16-10/24</t>
+  </si>
+  <si>
+    <t xml:space="preserve">E291S-16-20/24</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Реле влажности</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RH-1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Реле напряжения</t>
+  </si>
+  <si>
+    <t xml:space="preserve">РН-104</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Источник питания</t>
+  </si>
+  <si>
+    <t xml:space="preserve">«МОЛЛЮСК-12/1,3 DIN»</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Розетка на DIN-рейку</t>
+  </si>
+  <si>
+    <t xml:space="preserve">M1175</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ИБП</t>
+  </si>
+  <si>
+    <t xml:space="preserve">APC Smart-UPS XL 1000 ВА</t>
+  </si>
+  <si>
+    <t xml:space="preserve">APC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Клемма</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ZS10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ZS10-BL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ZS10-PE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ZS4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ZS4-BK</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ZS4-BL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ZS4-BR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ZS4-D2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ZS6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ZS6-BL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Перемычка</t>
+  </si>
+  <si>
+    <t xml:space="preserve">JB5-10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">JB5-2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">JB5-3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">JB5-4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Блок клеммный</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UKK80</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Держатель шины</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Шина 25 отв.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ограничитель на DIN-рейку</t>
+  </si>
+  <si>
+    <t xml:space="preserve">YXD10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IEK</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Изолятор торцевой</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ES4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ES4-D2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Гребенка для автоматов 12 полюсов 63 А</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PS1/12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Торцевая заглушка</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PS-END 0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Гребенка для УЗО</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PS2/12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PS-END</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Провод 10 кв.мм коричневый</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ПУГВ 1х10 кор.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Провод 10 кв.мм голубой</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ПУГВ 1х10 гол.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Провод 10 кв.мм желто-зеленый</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ПУГВ 1х10 ж/з.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Провод 6 кв.мм коричневый</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ПУГВ 1х6 кор.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Провод 6 кв.мм голубой</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ПУГВ 1х6 гол.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Провод 4 кв.мм коричневый</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ПУГВ 1х4 кор.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Провод 4 кв.мм голубой</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ПУГВ 1х4 гол.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Провод 2,5 кв.мм красный</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ПУГВ 1х2,5 кр.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Провод 2,5 кв.мм черный</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ПУГВ 1х2,5 ч.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Наконечник 10 кв.мм</t>
+  </si>
+  <si>
+    <t xml:space="preserve">НШВИ 10-12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Наконечник 6 кв.мм</t>
+  </si>
+  <si>
+    <t xml:space="preserve">НШВИ 6,0-12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Наконечник 4 кв.мм</t>
+  </si>
+  <si>
+    <t xml:space="preserve">НШВИ 4,0-9</t>
   </si>
 </sst>
 </file>
@@ -701,7 +1028,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="18">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -742,24 +1069,8 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
@@ -779,10 +1090,6 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -871,23 +1178,24 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="true"/>
   </sheetPr>
-  <dimension ref="A1:I103"/>
+  <dimension ref="A1:I175"/>
   <sheetViews>
-    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A89" activePane="bottomLeft" state="frozen"/>
+    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="0" ySplit="1" topLeftCell="A154" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="H55" activeCellId="0" sqref="H55:H59"/>
+      <selection pane="bottomLeft" activeCell="A138" activeCellId="0" sqref="A138"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="9.85204081632653"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="46.030612244898"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="13.5"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="12.8265306122449"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="13.2295918367347"/>
-    <col collapsed="false" hidden="false" max="7" min="6" style="1" width="9.85204081632653"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="7.83163265306122"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="9.44897959183673"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="44.2755102040816"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="12.9591836734694"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="12.4183673469388"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="12.8265306122449"/>
+    <col collapsed="false" hidden="false" max="7" min="6" style="1" width="9.44897959183673"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="7.4234693877551"/>
+    <col collapsed="false" hidden="false" max="1025" min="9" style="0" width="8.23469387755102"/>
   </cols>
   <sheetData>
     <row r="1" s="3" customFormat="true" ht="67.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -917,19 +1225,17 @@
       </c>
       <c r="I1" s="2"/>
     </row>
-    <row r="2" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0"/>
       <c r="B2" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="0"/>
       <c r="D2" s="0"/>
-      <c r="E2" s="0"/>
       <c r="F2" s="0"/>
       <c r="G2" s="0"/>
       <c r="H2" s="0"/>
     </row>
-    <row r="3" customFormat="false" ht="46.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="46.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="5" t="n">
         <v>1</v>
       </c>
@@ -951,7 +1257,7 @@
       </c>
       <c r="H3" s="5"/>
     </row>
-    <row r="4" customFormat="false" ht="35.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="35.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="5" t="n">
         <v>2</v>
       </c>
@@ -973,7 +1279,7 @@
       </c>
       <c r="H4" s="5"/>
     </row>
-    <row r="5" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="35.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="5" t="n">
         <v>3</v>
       </c>
@@ -1033,7 +1339,7 @@
       </c>
       <c r="H7" s="0"/>
     </row>
-    <row r="8" customFormat="false" ht="79.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" customFormat="false" ht="93.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
@@ -1055,7 +1361,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="35.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" customFormat="false" ht="35.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
@@ -1077,7 +1383,7 @@
       </c>
       <c r="H9" s="0"/>
     </row>
-    <row r="10" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
@@ -1095,7 +1401,7 @@
       </c>
       <c r="H10" s="0"/>
     </row>
-    <row r="11" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="n">
         <v>9</v>
       </c>
@@ -1113,26 +1419,23 @@
       </c>
       <c r="H11" s="0"/>
     </row>
-    <row r="12" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0"/>
       <c r="B12" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="C12" s="0"/>
       <c r="D12" s="0"/>
-      <c r="E12" s="0"/>
       <c r="F12" s="0"/>
       <c r="G12" s="0"/>
       <c r="H12" s="0"/>
     </row>
-    <row r="13" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B13" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="C13" s="0"/>
       <c r="D13" s="0"/>
       <c r="E13" s="9"/>
       <c r="F13" s="1" t="s">
@@ -1145,7 +1448,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="n">
         <f aca="false">A13+1</f>
         <v>2</v>
@@ -1170,7 +1473,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="12.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" customFormat="false" ht="24.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A15" s="5" t="n">
         <f aca="false">A14+1</f>
         <v>3</v>
@@ -1193,7 +1496,7 @@
       </c>
       <c r="H15" s="5"/>
     </row>
-    <row r="16" customFormat="false" ht="12.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" customFormat="false" ht="25.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A16" s="5" t="n">
         <f aca="false">A15+1</f>
         <v>4</v>
@@ -1216,7 +1519,7 @@
       </c>
       <c r="H16" s="5"/>
     </row>
-    <row r="17" customFormat="false" ht="12.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="5" t="n">
         <f aca="false">A16+1</f>
         <v>5</v>
@@ -1239,7 +1542,7 @@
       </c>
       <c r="H17" s="5"/>
     </row>
-    <row r="18" customFormat="false" ht="12.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="5" t="n">
         <f aca="false">A17+1</f>
         <v>6</v>
@@ -1262,7 +1565,7 @@
       </c>
       <c r="H18" s="5"/>
     </row>
-    <row r="19" customFormat="false" ht="12.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="5" t="n">
         <f aca="false">A18+1</f>
         <v>7</v>
@@ -1285,7 +1588,7 @@
       </c>
       <c r="H19" s="5"/>
     </row>
-    <row r="20" customFormat="false" ht="12.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="5" t="n">
         <f aca="false">A19+1</f>
         <v>8</v>
@@ -1308,7 +1611,7 @@
       </c>
       <c r="H20" s="5"/>
     </row>
-    <row r="21" customFormat="false" ht="36.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="21" customFormat="false" ht="35.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="5" t="n">
         <f aca="false">A20+1</f>
         <v>9</v>
@@ -1331,7 +1634,7 @@
       </c>
       <c r="H21" s="5"/>
     </row>
-    <row r="22" customFormat="false" ht="12.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="5" t="n">
         <f aca="false">A21+1</f>
         <v>10</v>
@@ -1354,7 +1657,7 @@
       </c>
       <c r="H22" s="5"/>
     </row>
-    <row r="23" customFormat="false" ht="12.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="5" t="n">
         <f aca="false">A22+1</f>
         <v>11</v>
@@ -1377,7 +1680,7 @@
       </c>
       <c r="H23" s="5"/>
     </row>
-    <row r="24" customFormat="false" ht="12.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="5" t="n">
         <f aca="false">A23+1</f>
         <v>12</v>
@@ -1400,7 +1703,7 @@
       </c>
       <c r="H24" s="5"/>
     </row>
-    <row r="25" customFormat="false" ht="12.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="5" t="n">
         <f aca="false">A24+1</f>
         <v>13</v>
@@ -1423,7 +1726,7 @@
       </c>
       <c r="H25" s="5"/>
     </row>
-    <row r="26" customFormat="false" ht="12.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="5" t="n">
         <f aca="false">A25+1</f>
         <v>14</v>
@@ -1446,7 +1749,7 @@
       </c>
       <c r="H26" s="5"/>
     </row>
-    <row r="27" customFormat="false" ht="12.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="5" t="n">
         <f aca="false">A26+1</f>
         <v>15</v>
@@ -1469,7 +1772,7 @@
       </c>
       <c r="H27" s="5"/>
     </row>
-    <row r="28" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="5" t="n">
         <f aca="false">A27+1</f>
         <v>16</v>
@@ -1561,7 +1864,7 @@
       </c>
       <c r="H31" s="5"/>
     </row>
-    <row r="32" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="32" customFormat="false" ht="23.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="5" t="n">
         <f aca="false">A31+1</f>
         <v>20</v>
@@ -1584,7 +1887,7 @@
       </c>
       <c r="H32" s="5"/>
     </row>
-    <row r="33" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="5" t="n">
         <f aca="false">A32+1</f>
         <v>21</v>
@@ -1607,68 +1910,66 @@
       </c>
       <c r="H33" s="5"/>
     </row>
-    <row r="34" s="14" customFormat="true" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="10" t="n">
+    <row r="34" customFormat="false" ht="35.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="1" t="n">
         <f aca="false">A33+1</f>
         <v>22</v>
       </c>
-      <c r="B34" s="11" t="s">
+      <c r="B34" s="8" t="s">
         <v>75</v>
       </c>
-      <c r="C34" s="12" t="s">
+      <c r="C34" s="9" t="s">
         <v>76</v>
       </c>
-      <c r="D34" s="10"/>
-      <c r="E34" s="12" t="s">
+      <c r="D34" s="0"/>
+      <c r="E34" s="9" t="s">
         <v>77</v>
       </c>
-      <c r="F34" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="G34" s="10" t="n">
+      <c r="F34" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G34" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="H34" s="13" t="s">
+      <c r="H34" s="10" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="35" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="0"/>
       <c r="B35" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="C35" s="0"/>
       <c r="D35" s="0"/>
-      <c r="E35" s="0"/>
       <c r="F35" s="0"/>
       <c r="G35" s="0"/>
       <c r="H35" s="0"/>
     </row>
-    <row r="36" customFormat="false" ht="12.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="15" t="n">
+    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="11" t="n">
         <v>1</v>
       </c>
-      <c r="B36" s="16" t="s">
+      <c r="B36" s="12" t="s">
         <v>80</v>
       </c>
-      <c r="C36" s="17" t="s">
+      <c r="C36" s="13" t="s">
         <v>81</v>
       </c>
-      <c r="D36" s="18"/>
-      <c r="E36" s="17" t="s">
+      <c r="D36" s="14"/>
+      <c r="E36" s="13" t="s">
         <v>82</v>
       </c>
-      <c r="F36" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="G36" s="15" t="n">
+      <c r="F36" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="G36" s="11" t="n">
         <v>8</v>
       </c>
-      <c r="H36" s="18" t="s">
+      <c r="H36" s="14" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="37" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="1" t="n">
         <f aca="false">A36+1</f>
         <v>2</v>
@@ -1691,28 +1992,28 @@
       </c>
       <c r="H37" s="0"/>
     </row>
-    <row r="38" customFormat="false" ht="12.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="15" t="n">
+    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="11" t="n">
         <f aca="false">A37+1</f>
         <v>3</v>
       </c>
-      <c r="B38" s="16" t="s">
+      <c r="B38" s="12" t="s">
         <v>87</v>
       </c>
-      <c r="C38" s="17"/>
-      <c r="D38" s="18"/>
-      <c r="E38" s="16"/>
-      <c r="F38" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="G38" s="15" t="n">
+      <c r="C38" s="13"/>
+      <c r="D38" s="14"/>
+      <c r="E38" s="13"/>
+      <c r="F38" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="G38" s="11" t="n">
         <v>7</v>
       </c>
-      <c r="H38" s="18" t="s">
+      <c r="H38" s="14" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="39" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="1" t="n">
         <f aca="false">A38+1</f>
         <v>4</v>
@@ -1720,9 +2021,7 @@
       <c r="B39" s="8" t="s">
         <v>88</v>
       </c>
-      <c r="C39" s="0"/>
       <c r="D39" s="0"/>
-      <c r="E39" s="0"/>
       <c r="F39" s="1" t="s">
         <v>12</v>
       </c>
@@ -1731,19 +2030,17 @@
       </c>
       <c r="H39" s="0"/>
     </row>
-    <row r="40" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="0"/>
       <c r="B40" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="C40" s="0"/>
       <c r="D40" s="0"/>
-      <c r="E40" s="0"/>
       <c r="F40" s="0"/>
       <c r="G40" s="0"/>
       <c r="H40" s="0"/>
     </row>
-    <row r="41" customFormat="false" ht="24.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="41" customFormat="false" ht="23.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="5" t="n">
         <v>1</v>
       </c>
@@ -1763,11 +2060,11 @@
       <c r="G41" s="5" t="n">
         <v>4</v>
       </c>
-      <c r="H41" s="19" t="s">
+      <c r="H41" s="15" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="42" customFormat="false" ht="12.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="5" t="n">
         <f aca="false">A41+1</f>
         <v>2</v>
@@ -1788,11 +2085,11 @@
       <c r="G42" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="H42" s="19" t="s">
+      <c r="H42" s="15" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="43" customFormat="false" ht="24.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="43" customFormat="false" ht="23.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="5" t="n">
         <f aca="false">A42+1</f>
         <v>3</v>
@@ -1813,9 +2110,9 @@
       <c r="G43" s="5" t="n">
         <v>4</v>
       </c>
-      <c r="H43" s="19"/>
-    </row>
-    <row r="44" customFormat="false" ht="12.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H43" s="15"/>
+    </row>
+    <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="5" t="n">
         <f aca="false">A43+1</f>
         <v>4</v>
@@ -1832,9 +2129,9 @@
       <c r="G44" s="5" t="n">
         <v>2</v>
       </c>
-      <c r="H44" s="19"/>
-    </row>
-    <row r="45" customFormat="false" ht="12.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H44" s="15"/>
+    </row>
+    <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="5" t="n">
         <f aca="false">A44+1</f>
         <v>5</v>
@@ -1855,11 +2152,11 @@
       <c r="G45" s="5" t="n">
         <v>9</v>
       </c>
-      <c r="H45" s="19" t="s">
+      <c r="H45" s="15" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="46" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="0"/>
       <c r="B46" s="4" t="s">
         <v>104</v>
@@ -1871,7 +2168,7 @@
       <c r="G46" s="0"/>
       <c r="H46" s="0"/>
     </row>
-    <row r="47" customFormat="false" ht="12.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="5" t="n">
         <v>1</v>
       </c>
@@ -1887,34 +2184,34 @@
       <c r="G47" s="5" t="n">
         <v>3</v>
       </c>
-      <c r="H47" s="19" t="s">
+      <c r="H47" s="15" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="48" customFormat="false" ht="12.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="15" t="n">
+    <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A48" s="11" t="n">
         <f aca="false">A47+1</f>
         <v>2</v>
       </c>
-      <c r="B48" s="16" t="s">
+      <c r="B48" s="12" t="s">
         <v>106</v>
       </c>
-      <c r="C48" s="17" t="s">
+      <c r="C48" s="13" t="s">
         <v>107</v>
       </c>
-      <c r="D48" s="18"/>
-      <c r="E48" s="16"/>
-      <c r="F48" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="G48" s="15" t="n">
+      <c r="D48" s="14"/>
+      <c r="E48" s="13"/>
+      <c r="F48" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="G48" s="11" t="n">
         <v>8</v>
       </c>
-      <c r="H48" s="18" t="s">
+      <c r="H48" s="14" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="49" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="5" t="n">
         <f aca="false">A48+1</f>
         <v>3</v>
@@ -1935,90 +2232,87 @@
       </c>
       <c r="H49" s="5"/>
     </row>
-    <row r="50" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="1" t="n">
+    <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A50" s="5" t="n">
         <f aca="false">A49+1</f>
         <v>4</v>
       </c>
-      <c r="B50" s="8" t="s">
+      <c r="B50" s="6" t="s">
         <v>108</v>
       </c>
-      <c r="C50" s="9" t="s">
+      <c r="C50" s="7" t="s">
         <v>110</v>
       </c>
-      <c r="D50" s="0"/>
-      <c r="E50" s="8" t="s">
+      <c r="D50" s="5"/>
+      <c r="E50" s="7" t="s">
         <v>111</v>
       </c>
-      <c r="F50" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="G50" s="1" t="n">
+      <c r="F50" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G50" s="5" t="n">
         <v>2</v>
       </c>
-      <c r="H50" s="0"/>
-      <c r="I50" s="0" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="51" customFormat="false" ht="12.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="15" t="n">
+      <c r="H50" s="5"/>
+    </row>
+    <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A51" s="11" t="n">
         <f aca="false">A50+1</f>
         <v>5</v>
       </c>
-      <c r="B51" s="16" t="s">
+      <c r="B51" s="12" t="s">
+        <v>112</v>
+      </c>
+      <c r="C51" s="13" t="s">
         <v>113</v>
       </c>
-      <c r="C51" s="17" t="s">
-        <v>114</v>
-      </c>
-      <c r="D51" s="18"/>
-      <c r="E51" s="16"/>
-      <c r="F51" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="G51" s="15" t="n">
+      <c r="D51" s="14"/>
+      <c r="E51" s="13"/>
+      <c r="F51" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="G51" s="11" t="n">
         <v>4</v>
       </c>
-      <c r="H51" s="18" t="s">
+      <c r="H51" s="14" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="52" customFormat="false" ht="12.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="15" t="n">
+    <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A52" s="11" t="n">
         <f aca="false">A51+1</f>
         <v>6</v>
       </c>
-      <c r="B52" s="16" t="s">
+      <c r="B52" s="12" t="s">
+        <v>114</v>
+      </c>
+      <c r="C52" s="13" t="s">
         <v>115</v>
       </c>
-      <c r="C52" s="17" t="s">
+      <c r="D52" s="14"/>
+      <c r="E52" s="13" t="s">
         <v>116</v>
       </c>
-      <c r="D52" s="18"/>
-      <c r="E52" s="16" t="s">
-        <v>117</v>
-      </c>
-      <c r="F52" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="G52" s="15" t="n">
+      <c r="F52" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="G52" s="11" t="n">
         <v>7</v>
       </c>
-      <c r="H52" s="18" t="s">
+      <c r="H52" s="14" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="53" customFormat="false" ht="12.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="5" t="n">
         <f aca="false">A52+1</f>
         <v>7</v>
       </c>
       <c r="B53" s="6" t="s">
+        <v>117</v>
+      </c>
+      <c r="C53" s="7" t="s">
         <v>118</v>
-      </c>
-      <c r="C53" s="7" t="s">
-        <v>119</v>
       </c>
       <c r="D53" s="5"/>
       <c r="E53" s="7"/>
@@ -2030,16 +2324,16 @@
       </c>
       <c r="H53" s="5"/>
     </row>
-    <row r="54" customFormat="false" ht="24.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="54" customFormat="false" ht="23.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="5" t="n">
         <f aca="false">A53+1</f>
         <v>8</v>
       </c>
       <c r="B54" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="C54" s="7" t="s">
         <v>120</v>
-      </c>
-      <c r="C54" s="7" t="s">
-        <v>121</v>
       </c>
       <c r="D54" s="5"/>
       <c r="E54" s="7"/>
@@ -2051,16 +2345,16 @@
       </c>
       <c r="H54" s="5"/>
     </row>
-    <row r="55" customFormat="false" ht="12.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="5" t="n">
         <f aca="false">A54+1</f>
         <v>9</v>
       </c>
       <c r="B55" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="C55" s="7" t="s">
         <v>122</v>
-      </c>
-      <c r="C55" s="7" t="s">
-        <v>123</v>
       </c>
       <c r="D55" s="5"/>
       <c r="E55" s="7"/>
@@ -2070,15 +2364,15 @@
       <c r="G55" s="5" t="n">
         <v>17</v>
       </c>
-      <c r="H55" s="19"/>
-    </row>
-    <row r="56" customFormat="false" ht="12.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H55" s="15"/>
+    </row>
+    <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="5" t="n">
         <f aca="false">A55+1</f>
         <v>10</v>
       </c>
       <c r="B56" s="6" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C56" s="7"/>
       <c r="D56" s="5"/>
@@ -2089,40 +2383,40 @@
       <c r="G56" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="H56" s="19" t="s">
+      <c r="H56" s="15" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="57" customFormat="false" ht="12.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="1" t="n">
         <f aca="false">A56+1</f>
         <v>11</v>
       </c>
       <c r="B57" s="8" t="s">
+        <v>124</v>
+      </c>
+      <c r="C57" s="9" t="s">
         <v>125</v>
       </c>
-      <c r="C57" s="9" t="s">
-        <v>126</v>
-      </c>
       <c r="D57" s="0"/>
-      <c r="E57" s="8"/>
+      <c r="E57" s="9"/>
       <c r="F57" s="1" t="s">
         <v>12</v>
       </c>
       <c r="G57" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="H57" s="20" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="58" customFormat="false" ht="12.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H57" s="10" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="5" t="n">
         <f aca="false">A57+1</f>
         <v>12</v>
       </c>
       <c r="B58" s="6" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C58" s="7"/>
       <c r="D58" s="5"/>
@@ -2133,17 +2427,17 @@
       <c r="G58" s="5" t="n">
         <v>2</v>
       </c>
-      <c r="H58" s="19" t="s">
+      <c r="H58" s="15" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="59" customFormat="false" ht="24.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="59" customFormat="false" ht="23.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="5" t="n">
         <f aca="false">A58+1</f>
         <v>13</v>
       </c>
       <c r="B59" s="6" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C59" s="7"/>
       <c r="D59" s="5"/>
@@ -2154,17 +2448,17 @@
       <c r="G59" s="5" t="n">
         <v>2</v>
       </c>
-      <c r="H59" s="19" t="s">
+      <c r="H59" s="15" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="60" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="5" t="n">
         <f aca="false">A59+1</f>
         <v>14</v>
       </c>
       <c r="B60" s="6" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C60" s="7"/>
       <c r="D60" s="5"/>
@@ -2177,19 +2471,19 @@
       </c>
       <c r="H60" s="5"/>
     </row>
-    <row r="61" customFormat="false" ht="12.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="1" t="n">
         <f aca="false">A60+1</f>
         <v>15</v>
       </c>
       <c r="B61" s="8" t="s">
+        <v>130</v>
+      </c>
+      <c r="C61" s="9" t="s">
         <v>131</v>
       </c>
-      <c r="C61" s="9" t="s">
-        <v>132</v>
-      </c>
       <c r="D61" s="0"/>
-      <c r="E61" s="8"/>
+      <c r="E61" s="9"/>
       <c r="F61" s="1" t="s">
         <v>12</v>
       </c>
@@ -2197,16 +2491,16 @@
         <v>6</v>
       </c>
       <c r="H61" s="0" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="62" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="5" t="n">
         <f aca="false">A61+1</f>
         <v>16</v>
       </c>
       <c r="B62" s="6" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C62" s="7"/>
       <c r="D62" s="5"/>
@@ -2219,10 +2513,10 @@
       </c>
       <c r="H62" s="5"/>
     </row>
-    <row r="63" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="0"/>
       <c r="B63" s="4" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C63" s="9"/>
       <c r="D63" s="0"/>
@@ -2231,12 +2525,12 @@
       <c r="G63" s="0"/>
       <c r="H63" s="0"/>
     </row>
-    <row r="64" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B64" s="8" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C64" s="9"/>
       <c r="D64" s="0"/>
@@ -2249,13 +2543,13 @@
       </c>
       <c r="H64" s="0"/>
     </row>
-    <row r="65" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="1" t="n">
         <f aca="false">A64+1</f>
         <v>2</v>
       </c>
       <c r="B65" s="8" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C65" s="9"/>
       <c r="D65" s="0"/>
@@ -2268,13 +2562,13 @@
       </c>
       <c r="H65" s="0"/>
     </row>
-    <row r="66" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="1" t="n">
         <f aca="false">A65+1</f>
         <v>3</v>
       </c>
       <c r="B66" s="8" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C66" s="9"/>
       <c r="D66" s="0"/>
@@ -2287,13 +2581,13 @@
       </c>
       <c r="H66" s="0"/>
     </row>
-    <row r="67" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="1" t="n">
         <f aca="false">A66+1</f>
         <v>4</v>
       </c>
       <c r="B67" s="8" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C67" s="9"/>
       <c r="D67" s="0"/>
@@ -2306,17 +2600,15 @@
       </c>
       <c r="H67" s="0"/>
     </row>
-    <row r="68" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="1" t="n">
         <f aca="false">A67+1</f>
         <v>5</v>
       </c>
       <c r="B68" s="8" t="s">
-        <v>139</v>
-      </c>
-      <c r="C68" s="0"/>
+        <v>138</v>
+      </c>
       <c r="D68" s="0"/>
-      <c r="E68" s="0"/>
       <c r="F68" s="1" t="s">
         <v>12</v>
       </c>
@@ -2325,17 +2617,15 @@
       </c>
       <c r="H68" s="0"/>
     </row>
-    <row r="69" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="1" t="n">
         <f aca="false">A68+1</f>
         <v>6</v>
       </c>
       <c r="B69" s="8" t="s">
-        <v>140</v>
-      </c>
-      <c r="C69" s="0"/>
+        <v>139</v>
+      </c>
       <c r="D69" s="0"/>
-      <c r="E69" s="0"/>
       <c r="F69" s="1" t="s">
         <v>12</v>
       </c>
@@ -2344,17 +2634,15 @@
       </c>
       <c r="H69" s="0"/>
     </row>
-    <row r="70" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="1" t="n">
         <f aca="false">A69+1</f>
         <v>7</v>
       </c>
       <c r="B70" s="8" t="s">
-        <v>141</v>
-      </c>
-      <c r="C70" s="0"/>
+        <v>140</v>
+      </c>
       <c r="D70" s="0"/>
-      <c r="E70" s="0"/>
       <c r="F70" s="1" t="s">
         <v>12</v>
       </c>
@@ -2363,31 +2651,29 @@
       </c>
       <c r="H70" s="0"/>
     </row>
-    <row r="71" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="0"/>
       <c r="B71" s="4" t="s">
-        <v>142</v>
-      </c>
-      <c r="C71" s="0"/>
+        <v>141</v>
+      </c>
       <c r="D71" s="0"/>
-      <c r="E71" s="0"/>
       <c r="F71" s="0"/>
-      <c r="G71" s="21"/>
+      <c r="G71" s="16"/>
       <c r="H71" s="0"/>
     </row>
-    <row r="72" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="5" t="n">
         <v>1</v>
       </c>
       <c r="B72" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="C72" s="7" t="s">
         <v>143</v>
-      </c>
-      <c r="C72" s="7" t="s">
-        <v>144</v>
       </c>
       <c r="D72" s="5"/>
       <c r="E72" s="7" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="F72" s="5" t="s">
         <v>12</v>
@@ -2397,20 +2683,20 @@
       </c>
       <c r="H72" s="5"/>
     </row>
-    <row r="73" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="5" t="n">
         <f aca="false">A72+1</f>
         <v>2</v>
       </c>
       <c r="B73" s="6" t="s">
+        <v>145</v>
+      </c>
+      <c r="C73" s="7" t="s">
         <v>146</v>
-      </c>
-      <c r="C73" s="7" t="s">
-        <v>147</v>
       </c>
       <c r="D73" s="5"/>
       <c r="E73" s="7" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="F73" s="5" t="s">
         <v>12</v>
@@ -2420,20 +2706,20 @@
       </c>
       <c r="H73" s="5"/>
     </row>
-    <row r="74" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="5" t="n">
         <f aca="false">A73+1</f>
         <v>3</v>
       </c>
       <c r="B74" s="6" t="s">
+        <v>147</v>
+      </c>
+      <c r="C74" s="7" t="s">
         <v>148</v>
-      </c>
-      <c r="C74" s="7" t="s">
-        <v>149</v>
       </c>
       <c r="D74" s="5"/>
       <c r="E74" s="7" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="F74" s="5" t="s">
         <v>12</v>
@@ -2443,20 +2729,20 @@
       </c>
       <c r="H74" s="5"/>
     </row>
-    <row r="75" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="5" t="n">
         <f aca="false">A74+1</f>
         <v>4</v>
       </c>
       <c r="B75" s="6" t="s">
+        <v>149</v>
+      </c>
+      <c r="C75" s="7" t="s">
         <v>150</v>
-      </c>
-      <c r="C75" s="7" t="s">
-        <v>151</v>
       </c>
       <c r="D75" s="5"/>
       <c r="E75" s="7" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="F75" s="5" t="s">
         <v>12</v>
@@ -2466,255 +2752,253 @@
       </c>
       <c r="H75" s="5"/>
     </row>
-    <row r="76" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="0"/>
       <c r="B76" s="4" t="s">
-        <v>152</v>
-      </c>
-      <c r="C76" s="0"/>
+        <v>151</v>
+      </c>
       <c r="D76" s="0"/>
-      <c r="E76" s="0"/>
       <c r="F76" s="0"/>
       <c r="G76" s="0"/>
       <c r="H76" s="0"/>
     </row>
-    <row r="77" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="77" customFormat="false" ht="23.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="5" t="n">
         <v>1</v>
       </c>
       <c r="B77" s="6" t="s">
+        <v>152</v>
+      </c>
+      <c r="C77" s="7" t="s">
         <v>153</v>
-      </c>
-      <c r="C77" s="7" t="s">
-        <v>154</v>
       </c>
       <c r="D77" s="5"/>
       <c r="E77" s="7"/>
       <c r="F77" s="5" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="G77" s="5" t="n">
         <v>450</v>
       </c>
       <c r="H77" s="5"/>
     </row>
-    <row r="78" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="78" customFormat="false" ht="23.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="5" t="n">
         <f aca="false">A77+1</f>
         <v>2</v>
       </c>
       <c r="B78" s="6" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C78" s="7" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D78" s="5"/>
       <c r="E78" s="7"/>
       <c r="F78" s="5" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="G78" s="5" t="n">
         <v>270</v>
       </c>
       <c r="H78" s="5"/>
     </row>
-    <row r="79" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="79" customFormat="false" ht="23.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="5" t="n">
         <f aca="false">A78+1</f>
         <v>3</v>
       </c>
       <c r="B79" s="6" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C79" s="7" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D79" s="5"/>
       <c r="E79" s="7"/>
       <c r="F79" s="5" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="G79" s="5" t="n">
         <v>340</v>
       </c>
       <c r="H79" s="5"/>
     </row>
-    <row r="80" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="80" customFormat="false" ht="23.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="5" t="n">
         <f aca="false">A79+1</f>
         <v>4</v>
       </c>
       <c r="B80" s="6" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C80" s="7" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D80" s="5"/>
       <c r="E80" s="7"/>
       <c r="F80" s="5" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="G80" s="5" t="n">
         <v>10</v>
       </c>
       <c r="H80" s="5"/>
     </row>
-    <row r="81" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="81" customFormat="false" ht="23.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="5" t="n">
         <f aca="false">A80+1</f>
         <v>5</v>
       </c>
       <c r="B81" s="6" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C81" s="7" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D81" s="5"/>
       <c r="E81" s="7"/>
       <c r="F81" s="5" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="G81" s="5" t="n">
         <v>20</v>
       </c>
       <c r="H81" s="5"/>
     </row>
-    <row r="82" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="82" customFormat="false" ht="23.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="5" t="n">
         <f aca="false">A81+1</f>
         <v>6</v>
       </c>
       <c r="B82" s="6" t="s">
+        <v>159</v>
+      </c>
+      <c r="C82" s="7" t="s">
         <v>160</v>
-      </c>
-      <c r="C82" s="7" t="s">
-        <v>161</v>
       </c>
       <c r="D82" s="5"/>
       <c r="E82" s="7"/>
       <c r="F82" s="5" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="G82" s="5" t="n">
         <v>30</v>
       </c>
       <c r="H82" s="5"/>
     </row>
-    <row r="83" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="83" customFormat="false" ht="35.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="5" t="n">
         <f aca="false">A82+1</f>
         <v>7</v>
       </c>
       <c r="B83" s="6" t="s">
+        <v>161</v>
+      </c>
+      <c r="C83" s="7" t="s">
         <v>162</v>
-      </c>
-      <c r="C83" s="7" t="s">
-        <v>163</v>
       </c>
       <c r="D83" s="5"/>
       <c r="E83" s="7"/>
       <c r="F83" s="5" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="G83" s="5" t="n">
         <v>60</v>
       </c>
       <c r="H83" s="5"/>
     </row>
-    <row r="84" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="84" customFormat="false" ht="23.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="5" t="n">
         <f aca="false">A83+1</f>
         <v>8</v>
       </c>
       <c r="B84" s="6" t="s">
+        <v>163</v>
+      </c>
+      <c r="C84" s="7" t="s">
         <v>164</v>
-      </c>
-      <c r="C84" s="7" t="s">
-        <v>165</v>
       </c>
       <c r="D84" s="5"/>
       <c r="E84" s="7"/>
       <c r="F84" s="5" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="G84" s="5" t="n">
         <v>200</v>
       </c>
       <c r="H84" s="5"/>
     </row>
-    <row r="85" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="85" customFormat="false" ht="23.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="5" t="n">
         <f aca="false">A84+1</f>
         <v>9</v>
       </c>
       <c r="B85" s="6" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C85" s="7" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D85" s="5"/>
       <c r="E85" s="7"/>
       <c r="F85" s="5" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="G85" s="5" t="n">
         <v>60</v>
       </c>
       <c r="H85" s="5"/>
     </row>
-    <row r="86" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="86" customFormat="false" ht="23.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="5" t="n">
         <f aca="false">A85+1</f>
         <v>10</v>
       </c>
       <c r="B86" s="6" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C86" s="7" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D86" s="5"/>
       <c r="E86" s="7"/>
       <c r="F86" s="5" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="G86" s="5" t="n">
         <v>260</v>
       </c>
       <c r="H86" s="5"/>
     </row>
-    <row r="87" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="87" customFormat="false" ht="23.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="5" t="n">
         <f aca="false">A86+1</f>
         <v>11</v>
       </c>
       <c r="B87" s="6" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C87" s="7" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D87" s="5"/>
       <c r="E87" s="7"/>
       <c r="F87" s="5" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="G87" s="5" t="n">
         <v>530</v>
       </c>
       <c r="H87" s="5"/>
     </row>
-    <row r="88" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="5" t="n">
         <f aca="false">A87+1</f>
         <v>12</v>
       </c>
       <c r="B88" s="6" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C88" s="7" t="n">
         <v>40183</v>
@@ -2722,34 +3006,32 @@
       <c r="D88" s="5"/>
       <c r="E88" s="7"/>
       <c r="F88" s="5" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="G88" s="5" t="n">
         <v>130</v>
       </c>
       <c r="H88" s="5"/>
     </row>
-    <row r="89" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="0"/>
       <c r="B89" s="4" t="s">
-        <v>170</v>
-      </c>
-      <c r="C89" s="0"/>
+        <v>169</v>
+      </c>
       <c r="D89" s="0"/>
-      <c r="E89" s="0"/>
       <c r="F89" s="0"/>
       <c r="G89" s="0"/>
       <c r="H89" s="0"/>
     </row>
-    <row r="90" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="5" t="n">
         <v>1</v>
       </c>
       <c r="B90" s="6" t="s">
+        <v>170</v>
+      </c>
+      <c r="C90" s="7" t="s">
         <v>171</v>
-      </c>
-      <c r="C90" s="7" t="s">
-        <v>172</v>
       </c>
       <c r="D90" s="5"/>
       <c r="E90" s="7" t="s">
@@ -2763,15 +3045,15 @@
       </c>
       <c r="H90" s="5"/>
     </row>
-    <row r="91" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="5" t="n">
         <v>2</v>
       </c>
       <c r="B91" s="6" t="s">
+        <v>172</v>
+      </c>
+      <c r="C91" s="7" t="s">
         <v>173</v>
-      </c>
-      <c r="C91" s="7" t="s">
-        <v>174</v>
       </c>
       <c r="D91" s="5"/>
       <c r="E91" s="7" t="s">
@@ -2785,15 +3067,15 @@
       </c>
       <c r="H91" s="5"/>
     </row>
-    <row r="92" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="5" t="n">
         <v>3</v>
       </c>
       <c r="B92" s="6" t="s">
+        <v>174</v>
+      </c>
+      <c r="C92" s="7" t="s">
         <v>175</v>
-      </c>
-      <c r="C92" s="7" t="s">
-        <v>176</v>
       </c>
       <c r="D92" s="5"/>
       <c r="E92" s="7" t="s">
@@ -2807,24 +3089,22 @@
       </c>
       <c r="H92" s="5"/>
     </row>
-    <row r="93" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="0"/>
       <c r="B93" s="4" t="s">
-        <v>177</v>
-      </c>
-      <c r="C93" s="0"/>
+        <v>176</v>
+      </c>
       <c r="D93" s="0"/>
-      <c r="E93" s="0"/>
       <c r="F93" s="0"/>
       <c r="G93" s="0"/>
       <c r="H93" s="0"/>
     </row>
-    <row r="94" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="94" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="5" t="n">
         <v>1</v>
       </c>
       <c r="B94" s="6" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C94" s="7" t="n">
         <v>91916</v>
@@ -2834,19 +3114,19 @@
         <v>33</v>
       </c>
       <c r="F94" s="5" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="G94" s="5" t="n">
         <v>560</v>
       </c>
       <c r="H94" s="5"/>
     </row>
-    <row r="95" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="95" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="5" t="n">
         <v>2</v>
       </c>
       <c r="B95" s="6" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C95" s="7" t="n">
         <v>91920</v>
@@ -2856,19 +3136,19 @@
         <v>33</v>
       </c>
       <c r="F95" s="5" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="G95" s="5" t="n">
         <v>250</v>
       </c>
       <c r="H95" s="5"/>
     </row>
-    <row r="96" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="96" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A96" s="5" t="n">
         <v>3</v>
       </c>
       <c r="B96" s="6" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C96" s="7" t="n">
         <v>91925</v>
@@ -2878,19 +3158,19 @@
         <v>33</v>
       </c>
       <c r="F96" s="5" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="G96" s="5" t="n">
         <v>10</v>
       </c>
       <c r="H96" s="5"/>
     </row>
-    <row r="97" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="97" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A97" s="5" t="n">
         <v>4</v>
       </c>
       <c r="B97" s="6" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C97" s="7" t="n">
         <v>51016</v>
@@ -2907,12 +3187,12 @@
       </c>
       <c r="H97" s="5"/>
     </row>
-    <row r="98" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="98" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A98" s="5" t="n">
         <v>5</v>
       </c>
       <c r="B98" s="6" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C98" s="7" t="n">
         <v>51020</v>
@@ -2929,12 +3209,12 @@
       </c>
       <c r="H98" s="5"/>
     </row>
-    <row r="99" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="99" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A99" s="5" t="n">
         <v>6</v>
       </c>
       <c r="B99" s="6" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C99" s="7" t="n">
         <v>51025</v>
@@ -2951,18 +3231,16 @@
       </c>
       <c r="H99" s="5"/>
     </row>
-    <row r="100" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="100" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A100" s="1" t="n">
         <v>7</v>
       </c>
       <c r="B100" s="0" t="s">
-        <v>184</v>
-      </c>
-      <c r="C100" s="0"/>
+        <v>183</v>
+      </c>
       <c r="D100" s="0"/>
-      <c r="E100" s="0"/>
       <c r="F100" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="G100" s="1" t="n">
         <f aca="false">7+7+6+3+5+4+3</f>
@@ -2970,31 +3248,29 @@
       </c>
       <c r="H100" s="0"/>
     </row>
-    <row r="101" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="101" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A101" s="0"/>
       <c r="B101" s="4" t="s">
-        <v>185</v>
-      </c>
-      <c r="C101" s="0"/>
+        <v>184</v>
+      </c>
       <c r="D101" s="0"/>
-      <c r="E101" s="0"/>
       <c r="F101" s="0"/>
       <c r="G101" s="0"/>
       <c r="H101" s="0"/>
     </row>
-    <row r="102" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="102" customFormat="false" ht="23.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A102" s="5" t="n">
         <v>1</v>
       </c>
       <c r="B102" s="6" t="s">
+        <v>185</v>
+      </c>
+      <c r="C102" s="7" t="s">
         <v>186</v>
-      </c>
-      <c r="C102" s="7" t="s">
-        <v>187</v>
       </c>
       <c r="D102" s="5"/>
       <c r="E102" s="7" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="F102" s="5" t="s">
         <v>12</v>
@@ -3004,27 +3280,1375 @@
       </c>
       <c r="H102" s="5"/>
     </row>
-    <row r="103" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="103" customFormat="false" ht="23.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A103" s="5" t="n">
         <v>2</v>
       </c>
       <c r="B103" s="6" t="s">
+        <v>188</v>
+      </c>
+      <c r="C103" s="5" t="s">
         <v>189</v>
-      </c>
-      <c r="C103" s="5" t="s">
-        <v>190</v>
       </c>
       <c r="D103" s="5"/>
       <c r="E103" s="5" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="F103" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="G103" s="22" t="n">
+      <c r="G103" s="17" t="n">
         <v>100</v>
       </c>
       <c r="H103" s="5"/>
+    </row>
+    <row r="104" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B104" s="4" t="s">
+        <v>190</v>
+      </c>
+      <c r="D104" s="0"/>
+      <c r="F104" s="0"/>
+      <c r="G104" s="0"/>
+    </row>
+    <row r="105" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A105" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B105" s="0" t="s">
+        <v>191</v>
+      </c>
+      <c r="C105" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="D105" s="1" t="n">
+        <v>41856</v>
+      </c>
+      <c r="E105" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="F105" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G105" s="1" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="106" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A106" s="1" t="n">
+        <f aca="false">A105+1</f>
+        <v>2</v>
+      </c>
+      <c r="B106" s="0" t="s">
+        <v>193</v>
+      </c>
+      <c r="C106" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="D106" s="1" t="n">
+        <v>41863</v>
+      </c>
+      <c r="E106" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="F106" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G106" s="1" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="107" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A107" s="1" t="n">
+        <f aca="false">A106+1</f>
+        <v>3</v>
+      </c>
+      <c r="B107" s="0" t="s">
+        <v>195</v>
+      </c>
+      <c r="C107" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="D107" s="1" t="n">
+        <v>62389</v>
+      </c>
+      <c r="E107" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="F107" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="G107" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="108" customFormat="false" ht="23.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A108" s="1" t="n">
+        <f aca="false">A107+1</f>
+        <v>4</v>
+      </c>
+      <c r="B108" s="8" t="s">
+        <v>198</v>
+      </c>
+      <c r="C108" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="D108" s="1" t="n">
+        <v>41663</v>
+      </c>
+      <c r="E108" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="F108" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G108" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="109" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A109" s="1" t="n">
+        <f aca="false">A108+1</f>
+        <v>5</v>
+      </c>
+      <c r="B109" s="8" t="s">
+        <v>200</v>
+      </c>
+      <c r="C109" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="D109" s="1" t="n">
+        <v>41693</v>
+      </c>
+      <c r="E109" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="F109" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G109" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="110" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A110" s="1" t="n">
+        <f aca="false">A109+1</f>
+        <v>6</v>
+      </c>
+      <c r="B110" s="0" t="s">
+        <v>202</v>
+      </c>
+      <c r="C110" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="D110" s="1" t="n">
+        <v>62308</v>
+      </c>
+      <c r="E110" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="F110" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="G110" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="111" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A111" s="1" t="n">
+        <f aca="false">A110+1</f>
+        <v>7</v>
+      </c>
+      <c r="B111" s="0" t="s">
+        <v>204</v>
+      </c>
+      <c r="C111" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="E111" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="F111" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G111" s="1" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="112" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A112" s="1" t="n">
+        <f aca="false">A111+1</f>
+        <v>8</v>
+      </c>
+      <c r="B112" s="0" t="s">
+        <v>206</v>
+      </c>
+      <c r="C112" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="E112" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="F112" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G112" s="1" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="113" customFormat="false" ht="23.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A113" s="1" t="n">
+        <f aca="false">A112+1</f>
+        <v>9</v>
+      </c>
+      <c r="B113" s="0" t="s">
+        <v>208</v>
+      </c>
+      <c r="C113" s="9" t="s">
+        <v>209</v>
+      </c>
+      <c r="E113" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="F113" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G113" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="114" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A114" s="1" t="n">
+        <f aca="false">A113+1</f>
+        <v>10</v>
+      </c>
+      <c r="B114" s="0" t="s">
+        <v>211</v>
+      </c>
+      <c r="C114" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="E114" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="F114" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G114" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="115" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A115" s="1" t="n">
+        <f aca="false">A114+1</f>
+        <v>11</v>
+      </c>
+      <c r="B115" s="0" t="s">
+        <v>213</v>
+      </c>
+      <c r="C115" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="E115" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="F115" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G115" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="117" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A117" s="1" t="n">
+        <f aca="false">A115+1</f>
+        <v>12</v>
+      </c>
+      <c r="B117" s="0" t="s">
+        <v>216</v>
+      </c>
+      <c r="C117" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="E117" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="F117" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G117" s="1" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="118" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A118" s="1" t="n">
+        <f aca="false">A117+1</f>
+        <v>13</v>
+      </c>
+      <c r="B118" s="0" t="s">
+        <v>216</v>
+      </c>
+      <c r="C118" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="E118" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="F118" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G118" s="1" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="119" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A119" s="1" t="n">
+        <f aca="false">A118+1</f>
+        <v>14</v>
+      </c>
+      <c r="B119" s="0" t="s">
+        <v>216</v>
+      </c>
+      <c r="C119" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="E119" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="F119" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G119" s="1" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="120" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A120" s="1" t="n">
+        <f aca="false">A119+1</f>
+        <v>15</v>
+      </c>
+      <c r="B120" s="0" t="s">
+        <v>216</v>
+      </c>
+      <c r="C120" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="E120" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="F120" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G120" s="1" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="121" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A121" s="1" t="n">
+        <f aca="false">A120+1</f>
+        <v>16</v>
+      </c>
+      <c r="B121" s="0" t="s">
+        <v>216</v>
+      </c>
+      <c r="C121" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="E121" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="F121" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G121" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="122" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A122" s="1" t="n">
+        <f aca="false">A121+1</f>
+        <v>17</v>
+      </c>
+      <c r="B122" s="0" t="s">
+        <v>216</v>
+      </c>
+      <c r="C122" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="E122" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="F122" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G122" s="1" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="124" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A124" s="1" t="n">
+        <f aca="false">A122+1</f>
+        <v>18</v>
+      </c>
+      <c r="B124" s="0" t="s">
+        <v>223</v>
+      </c>
+      <c r="C124" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="E124" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="F124" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G124" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="125" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A125" s="1" t="n">
+        <f aca="false">A124+1</f>
+        <v>19</v>
+      </c>
+      <c r="B125" s="0" t="s">
+        <v>223</v>
+      </c>
+      <c r="C125" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="E125" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="F125" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G125" s="1" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="126" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A126" s="1" t="n">
+        <f aca="false">A125+1</f>
+        <v>20</v>
+      </c>
+      <c r="B126" s="0" t="s">
+        <v>223</v>
+      </c>
+      <c r="C126" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="E126" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="F126" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G126" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="127" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A127" s="1" t="n">
+        <f aca="false">A126+1</f>
+        <v>21</v>
+      </c>
+      <c r="B127" s="0" t="s">
+        <v>223</v>
+      </c>
+      <c r="C127" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="E127" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="F127" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G127" s="1" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="128" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A128" s="1" t="n">
+        <f aca="false">A127+1</f>
+        <v>22</v>
+      </c>
+      <c r="B128" s="0" t="s">
+        <v>223</v>
+      </c>
+      <c r="C128" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="E128" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="F128" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G128" s="1" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="130" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A130" s="1" t="n">
+        <f aca="false">A128+1</f>
+        <v>23</v>
+      </c>
+      <c r="B130" s="0" t="s">
+        <v>229</v>
+      </c>
+      <c r="C130" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="E130" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="F130" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G130" s="1" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="131" customFormat="false" ht="25.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A131" s="1" t="n">
+        <f aca="false">A130+1</f>
+        <v>24</v>
+      </c>
+      <c r="B131" s="0" t="s">
+        <v>229</v>
+      </c>
+      <c r="C131" s="9" t="s">
+        <v>231</v>
+      </c>
+      <c r="E131" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="F131" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G131" s="1" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="132" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A132" s="1" t="n">
+        <f aca="false">A131+1</f>
+        <v>25</v>
+      </c>
+      <c r="B132" s="0" t="s">
+        <v>232</v>
+      </c>
+      <c r="C132" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="F132" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G132" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="133" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A133" s="1" t="n">
+        <f aca="false">A132+1</f>
+        <v>26</v>
+      </c>
+      <c r="B133" s="0" t="s">
+        <v>234</v>
+      </c>
+      <c r="C133" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="F133" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G133" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="134" customFormat="false" ht="23.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A134" s="1" t="n">
+        <f aca="false">A133+1</f>
+        <v>27</v>
+      </c>
+      <c r="B134" s="0" t="s">
+        <v>236</v>
+      </c>
+      <c r="C134" s="9" t="s">
+        <v>237</v>
+      </c>
+      <c r="F134" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G134" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="135" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A135" s="1" t="n">
+        <f aca="false">A134+1</f>
+        <v>28</v>
+      </c>
+      <c r="B135" s="0" t="s">
+        <v>238</v>
+      </c>
+      <c r="C135" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="E135" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="F135" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G135" s="1" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="136" customFormat="false" ht="35.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A136" s="1" t="n">
+        <f aca="false">A135+1</f>
+        <v>29</v>
+      </c>
+      <c r="B136" s="0" t="s">
+        <v>240</v>
+      </c>
+      <c r="C136" s="9" t="s">
+        <v>241</v>
+      </c>
+      <c r="E136" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="F136" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G136" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="137" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C137" s="9"/>
+    </row>
+    <row r="138" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A138" s="1" t="n">
+        <f aca="false">A136+1</f>
+        <v>30</v>
+      </c>
+      <c r="B138" s="0" t="s">
+        <v>243</v>
+      </c>
+      <c r="C138" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="E138" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="F138" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G138" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="139" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A139" s="1" t="n">
+        <f aca="false">A138+1</f>
+        <v>31</v>
+      </c>
+      <c r="B139" s="0" t="s">
+        <v>243</v>
+      </c>
+      <c r="C139" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="E139" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="F139" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G139" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="140" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A140" s="1" t="n">
+        <f aca="false">A139+1</f>
+        <v>32</v>
+      </c>
+      <c r="B140" s="0" t="s">
+        <v>243</v>
+      </c>
+      <c r="C140" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="E140" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="F140" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G140" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="141" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A141" s="1" t="n">
+        <f aca="false">A140+1</f>
+        <v>33</v>
+      </c>
+      <c r="B141" s="0" t="s">
+        <v>243</v>
+      </c>
+      <c r="C141" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="E141" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="F141" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G141" s="1" t="n">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="142" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A142" s="1" t="n">
+        <f aca="false">A141+1</f>
+        <v>34</v>
+      </c>
+      <c r="B142" s="0" t="s">
+        <v>243</v>
+      </c>
+      <c r="C142" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="E142" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="F142" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G142" s="1" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="143" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A143" s="1" t="n">
+        <f aca="false">A142+1</f>
+        <v>35</v>
+      </c>
+      <c r="B143" s="0" t="s">
+        <v>243</v>
+      </c>
+      <c r="C143" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="E143" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="F143" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G143" s="1" t="n">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="144" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A144" s="1" t="n">
+        <f aca="false">A143+1</f>
+        <v>36</v>
+      </c>
+      <c r="B144" s="0" t="s">
+        <v>243</v>
+      </c>
+      <c r="C144" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="E144" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="F144" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G144" s="1" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="145" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A145" s="1" t="n">
+        <f aca="false">A144+1</f>
+        <v>37</v>
+      </c>
+      <c r="B145" s="0" t="s">
+        <v>243</v>
+      </c>
+      <c r="C145" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="E145" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="F145" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G145" s="1" t="n">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="146" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A146" s="1" t="n">
+        <f aca="false">A145+1</f>
+        <v>38</v>
+      </c>
+      <c r="B146" s="0" t="s">
+        <v>243</v>
+      </c>
+      <c r="C146" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="E146" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="F146" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G146" s="1" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="147" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A147" s="1" t="n">
+        <f aca="false">A146+1</f>
+        <v>39</v>
+      </c>
+      <c r="B147" s="0" t="s">
+        <v>243</v>
+      </c>
+      <c r="C147" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="E147" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="F147" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G147" s="1" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="148" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A148" s="1" t="n">
+        <f aca="false">A147+1</f>
+        <v>40</v>
+      </c>
+      <c r="B148" s="0" t="s">
+        <v>254</v>
+      </c>
+      <c r="C148" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="E148" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="F148" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G148" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="149" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A149" s="1" t="n">
+        <f aca="false">A148+1</f>
+        <v>41</v>
+      </c>
+      <c r="B149" s="0" t="s">
+        <v>254</v>
+      </c>
+      <c r="C149" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="E149" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="F149" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G149" s="1" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="150" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A150" s="1" t="n">
+        <f aca="false">A149+1</f>
+        <v>42</v>
+      </c>
+      <c r="B150" s="0" t="s">
+        <v>254</v>
+      </c>
+      <c r="C150" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="E150" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="F150" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G150" s="1" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="151" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A151" s="1" t="n">
+        <f aca="false">A150+1</f>
+        <v>43</v>
+      </c>
+      <c r="B151" s="0" t="s">
+        <v>254</v>
+      </c>
+      <c r="C151" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="E151" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="F151" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G151" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="152" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A152" s="1" t="n">
+        <f aca="false">A151+1</f>
+        <v>44</v>
+      </c>
+      <c r="B152" s="0" t="s">
+        <v>259</v>
+      </c>
+      <c r="C152" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="E152" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="F152" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G152" s="1" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="153" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A153" s="1" t="n">
+        <f aca="false">A152+1</f>
+        <v>45</v>
+      </c>
+      <c r="B153" s="0" t="s">
+        <v>261</v>
+      </c>
+      <c r="C153" s="1" t="n">
+        <v>12541</v>
+      </c>
+      <c r="E153" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="F153" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G153" s="1" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="154" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A154" s="1" t="n">
+        <f aca="false">A153+1</f>
+        <v>46</v>
+      </c>
+      <c r="B154" s="0" t="s">
+        <v>262</v>
+      </c>
+      <c r="C154" s="1" t="n">
+        <v>12535</v>
+      </c>
+      <c r="E154" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="F154" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G154" s="1" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="155" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A155" s="1" t="n">
+        <f aca="false">A154+1</f>
+        <v>47</v>
+      </c>
+      <c r="B155" s="0" t="s">
+        <v>263</v>
+      </c>
+      <c r="C155" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="E155" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="F155" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G155" s="1" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="156" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A156" s="1" t="n">
+        <f aca="false">A155+1</f>
+        <v>48</v>
+      </c>
+      <c r="B156" s="0" t="s">
+        <v>266</v>
+      </c>
+      <c r="C156" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="E156" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="F156" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G156" s="1" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="157" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A157" s="1" t="n">
+        <f aca="false">A156+1</f>
+        <v>49</v>
+      </c>
+      <c r="B157" s="0" t="s">
+        <v>266</v>
+      </c>
+      <c r="C157" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="E157" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="F157" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G157" s="1" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="159" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A159" s="1" t="n">
+        <f aca="false">A157+1</f>
+        <v>50</v>
+      </c>
+      <c r="B159" s="0" t="s">
+        <v>269</v>
+      </c>
+      <c r="C159" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="E159" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="F159" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G159" s="1" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="160" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A160" s="1" t="n">
+        <f aca="false">A159+1</f>
+        <v>51</v>
+      </c>
+      <c r="B160" s="0" t="s">
+        <v>271</v>
+      </c>
+      <c r="C160" s="9" t="s">
+        <v>272</v>
+      </c>
+      <c r="E160" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="F160" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G160" s="1" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="161" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A161" s="1" t="n">
+        <f aca="false">A160+1</f>
+        <v>52</v>
+      </c>
+      <c r="B161" s="0" t="s">
+        <v>273</v>
+      </c>
+      <c r="C161" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="E161" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="F161" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G161" s="1" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="162" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A162" s="1" t="n">
+        <f aca="false">A161+1</f>
+        <v>53</v>
+      </c>
+      <c r="B162" s="0" t="s">
+        <v>271</v>
+      </c>
+      <c r="C162" s="9" t="s">
+        <v>275</v>
+      </c>
+      <c r="E162" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="F162" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G162" s="1" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="164" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A164" s="1" t="n">
+        <f aca="false">A162+1</f>
+        <v>54</v>
+      </c>
+      <c r="B164" s="0" t="s">
+        <v>276</v>
+      </c>
+      <c r="C164" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="F164" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="G164" s="1" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="165" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A165" s="1" t="n">
+        <f aca="false">A164+1</f>
+        <v>55</v>
+      </c>
+      <c r="B165" s="0" t="s">
+        <v>278</v>
+      </c>
+      <c r="C165" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="F165" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="G165" s="1" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="166" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A166" s="1" t="n">
+        <f aca="false">A165+1</f>
+        <v>56</v>
+      </c>
+      <c r="B166" s="0" t="s">
+        <v>280</v>
+      </c>
+      <c r="C166" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="F166" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="G166" s="1" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="167" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A167" s="1" t="n">
+        <f aca="false">A166+1</f>
+        <v>57</v>
+      </c>
+      <c r="B167" s="0" t="s">
+        <v>282</v>
+      </c>
+      <c r="C167" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="F167" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="G167" s="1" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="168" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A168" s="1" t="n">
+        <f aca="false">A167+1</f>
+        <v>58</v>
+      </c>
+      <c r="B168" s="0" t="s">
+        <v>284</v>
+      </c>
+      <c r="C168" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="F168" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="G168" s="1" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="169" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A169" s="1" t="n">
+        <f aca="false">A168+1</f>
+        <v>59</v>
+      </c>
+      <c r="B169" s="0" t="s">
+        <v>286</v>
+      </c>
+      <c r="C169" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="F169" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="G169" s="1" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="170" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A170" s="1" t="n">
+        <f aca="false">A169+1</f>
+        <v>60</v>
+      </c>
+      <c r="B170" s="0" t="s">
+        <v>288</v>
+      </c>
+      <c r="C170" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="F170" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="G170" s="1" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="171" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A171" s="1" t="n">
+        <f aca="false">A170+1</f>
+        <v>61</v>
+      </c>
+      <c r="B171" s="0" t="s">
+        <v>290</v>
+      </c>
+      <c r="C171" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="F171" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="G171" s="1" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="172" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A172" s="1" t="n">
+        <f aca="false">A171+1</f>
+        <v>62</v>
+      </c>
+      <c r="B172" s="0" t="s">
+        <v>292</v>
+      </c>
+      <c r="C172" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="F172" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="G172" s="1" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="173" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A173" s="1" t="n">
+        <f aca="false">A172+1</f>
+        <v>63</v>
+      </c>
+      <c r="B173" s="0" t="s">
+        <v>294</v>
+      </c>
+      <c r="C173" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="F173" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G173" s="1" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="174" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A174" s="1" t="n">
+        <f aca="false">A173+1</f>
+        <v>64</v>
+      </c>
+      <c r="B174" s="0" t="s">
+        <v>296</v>
+      </c>
+      <c r="C174" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="F174" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G174" s="1" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="175" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A175" s="1" t="n">
+        <f aca="false">A174+1</f>
+        <v>65</v>
+      </c>
+      <c r="B175" s="0" t="s">
+        <v>298</v>
+      </c>
+      <c r="C175" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="F175" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G175" s="1" t="n">
+        <v>200</v>
+      </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="true" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>

--- a/04 ЭОМ СС/спецификация.xlsx
+++ b/04 ЭОМ СС/спецификация.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="572" uniqueCount="300">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="586" uniqueCount="308">
   <si>
     <t xml:space="preserve">Позиция</t>
   </si>
@@ -477,6 +477,42 @@
     <t xml:space="preserve">С2000М</t>
   </si>
   <si>
+    <t xml:space="preserve">Расширитель адресный</t>
+  </si>
+  <si>
+    <t xml:space="preserve">С2000-АР1 исп.01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Источник питания</t>
+  </si>
+  <si>
+    <t xml:space="preserve">СКАТ-1200С</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Бастион</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Аккумулятор 12В 7Ач</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Кабель огнестойкий</t>
+  </si>
+  <si>
+    <t xml:space="preserve">КПСнг(А)-FRLS 1x2x0,5 мм</t>
+  </si>
+  <si>
+    <t xml:space="preserve">м</t>
+  </si>
+  <si>
+    <t xml:space="preserve">60 есть</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Извещатель тепловой линейный (термокабель)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ИПЛТ 138/280 EPC</t>
+  </si>
+  <si>
     <t xml:space="preserve">Кабели</t>
   </si>
   <si>
@@ -486,9 +522,6 @@
     <t xml:space="preserve">ВВГнг(А)-LS 2x1,5</t>
   </si>
   <si>
-    <t xml:space="preserve">м</t>
-  </si>
-  <si>
     <t xml:space="preserve">ВВГнг(А)-LS 3x1,5</t>
   </si>
   <si>
@@ -507,12 +540,6 @@
     <t xml:space="preserve">КВВГнг(А)-LS 5х0,75</t>
   </si>
   <si>
-    <t xml:space="preserve">Кабель огнестойкий</t>
-  </si>
-  <si>
-    <t xml:space="preserve">КПСнг(А)-FRLS 1x2x0,5 мм</t>
-  </si>
-  <si>
     <t xml:space="preserve">Кабель связи</t>
   </si>
   <si>
@@ -730,9 +757,6 @@
   </si>
   <si>
     <t xml:space="preserve">РН-104</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Источник питания</t>
   </si>
   <si>
     <t xml:space="preserve">«МОЛЛЮСК-12/1,3 DIN»</t>
@@ -1178,24 +1202,23 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="true"/>
   </sheetPr>
-  <dimension ref="A1:I175"/>
+  <dimension ref="A1:I179"/>
   <sheetViews>
     <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A154" activePane="bottomLeft" state="frozen"/>
+      <pane xSplit="0" ySplit="1" topLeftCell="A61" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="A138" activeCellId="0" sqref="A138"/>
+      <selection pane="bottomLeft" activeCell="C77" activeCellId="0" sqref="C77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="9.44897959183673"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="44.2755102040816"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="12.9591836734694"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="12.4183673469388"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="12.8265306122449"/>
-    <col collapsed="false" hidden="false" max="7" min="6" style="1" width="9.44897959183673"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="7.4234693877551"/>
-    <col collapsed="false" hidden="false" max="1025" min="9" style="0" width="8.23469387755102"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="9.31632653061224"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="43.7397959183673"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="12.8265306122449"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="12.2857142857143"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="12.6887755102041"/>
+    <col collapsed="false" hidden="false" max="7" min="6" style="1" width="9.31632653061224"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="7.29081632653061"/>
   </cols>
   <sheetData>
     <row r="1" s="3" customFormat="true" ht="67.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1230,6 +1253,7 @@
       <c r="B2" s="4" t="s">
         <v>8</v>
       </c>
+      <c r="C2" s="0"/>
       <c r="D2" s="0"/>
       <c r="F2" s="0"/>
       <c r="G2" s="0"/>
@@ -1424,6 +1448,7 @@
       <c r="B12" s="4" t="s">
         <v>28</v>
       </c>
+      <c r="C12" s="0"/>
       <c r="D12" s="0"/>
       <c r="F12" s="0"/>
       <c r="G12" s="0"/>
@@ -1436,6 +1461,7 @@
       <c r="B13" s="8" t="s">
         <v>29</v>
       </c>
+      <c r="C13" s="0"/>
       <c r="D13" s="0"/>
       <c r="E13" s="9"/>
       <c r="F13" s="1" t="s">
@@ -1940,6 +1966,7 @@
       <c r="B35" s="4" t="s">
         <v>79</v>
       </c>
+      <c r="C35" s="0"/>
       <c r="D35" s="0"/>
       <c r="F35" s="0"/>
       <c r="G35" s="0"/>
@@ -2021,6 +2048,7 @@
       <c r="B39" s="8" t="s">
         <v>88</v>
       </c>
+      <c r="C39" s="0"/>
       <c r="D39" s="0"/>
       <c r="F39" s="1" t="s">
         <v>12</v>
@@ -2035,6 +2063,7 @@
       <c r="B40" s="4" t="s">
         <v>89</v>
       </c>
+      <c r="C40" s="0"/>
       <c r="D40" s="0"/>
       <c r="F40" s="0"/>
       <c r="G40" s="0"/>
@@ -2608,6 +2637,7 @@
       <c r="B68" s="8" t="s">
         <v>138</v>
       </c>
+      <c r="C68" s="0"/>
       <c r="D68" s="0"/>
       <c r="F68" s="1" t="s">
         <v>12</v>
@@ -2625,6 +2655,7 @@
       <c r="B69" s="8" t="s">
         <v>139</v>
       </c>
+      <c r="C69" s="0"/>
       <c r="D69" s="0"/>
       <c r="F69" s="1" t="s">
         <v>12</v>
@@ -2642,6 +2673,7 @@
       <c r="B70" s="8" t="s">
         <v>140</v>
       </c>
+      <c r="C70" s="0"/>
       <c r="D70" s="0"/>
       <c r="F70" s="1" t="s">
         <v>12</v>
@@ -2656,6 +2688,7 @@
       <c r="B71" s="4" t="s">
         <v>141</v>
       </c>
+      <c r="C71" s="0"/>
       <c r="D71" s="0"/>
       <c r="F71" s="0"/>
       <c r="G71" s="16"/>
@@ -2752,348 +2785,359 @@
       </c>
       <c r="H75" s="5"/>
     </row>
-    <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A76" s="0"/>
-      <c r="B76" s="4" t="s">
+    <row r="76" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A76" s="1" t="n">
+        <f aca="false">A75+1</f>
+        <v>5</v>
+      </c>
+      <c r="B76" s="8" t="s">
         <v>151</v>
       </c>
+      <c r="C76" s="8" t="s">
+        <v>152</v>
+      </c>
       <c r="D76" s="0"/>
-      <c r="F76" s="0"/>
-      <c r="G76" s="0"/>
+      <c r="E76" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="F76" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G76" s="1" t="n">
+        <v>3</v>
+      </c>
       <c r="H76" s="0"/>
     </row>
-    <row r="77" customFormat="false" ht="23.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A77" s="5" t="n">
+    <row r="77" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A77" s="1" t="n">
+        <f aca="false">A76+1</f>
+        <v>6</v>
+      </c>
+      <c r="B77" s="8" t="s">
+        <v>153</v>
+      </c>
+      <c r="C77" s="8" t="s">
+        <v>154</v>
+      </c>
+      <c r="D77" s="0"/>
+      <c r="E77" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="F77" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G77" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B77" s="6" t="s">
-        <v>152</v>
-      </c>
-      <c r="C77" s="7" t="s">
-        <v>153</v>
-      </c>
-      <c r="D77" s="5"/>
-      <c r="E77" s="7"/>
-      <c r="F77" s="5" t="s">
-        <v>154</v>
-      </c>
-      <c r="G77" s="5" t="n">
-        <v>450</v>
-      </c>
-      <c r="H77" s="5"/>
-    </row>
-    <row r="78" customFormat="false" ht="23.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A78" s="5" t="n">
+      <c r="H77" s="0"/>
+    </row>
+    <row r="78" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A78" s="1" t="n">
         <f aca="false">A77+1</f>
-        <v>2</v>
-      </c>
-      <c r="B78" s="6" t="s">
-        <v>152</v>
-      </c>
-      <c r="C78" s="7" t="s">
-        <v>155</v>
-      </c>
-      <c r="D78" s="5"/>
-      <c r="E78" s="7"/>
-      <c r="F78" s="5" t="s">
-        <v>154</v>
-      </c>
-      <c r="G78" s="5" t="n">
-        <v>270</v>
-      </c>
-      <c r="H78" s="5"/>
-    </row>
-    <row r="79" customFormat="false" ht="23.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A79" s="5" t="n">
+        <v>7</v>
+      </c>
+      <c r="B78" s="8" t="s">
+        <v>156</v>
+      </c>
+      <c r="C78" s="0"/>
+      <c r="D78" s="0"/>
+      <c r="F78" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G78" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="H78" s="0"/>
+    </row>
+    <row r="79" customFormat="false" ht="36.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A79" s="1" t="n">
         <f aca="false">A78+1</f>
-        <v>3</v>
-      </c>
-      <c r="B79" s="6" t="s">
-        <v>152</v>
-      </c>
-      <c r="C79" s="7" t="s">
-        <v>156</v>
-      </c>
-      <c r="D79" s="5"/>
-      <c r="E79" s="7"/>
-      <c r="F79" s="5" t="s">
-        <v>154</v>
-      </c>
-      <c r="G79" s="5" t="n">
-        <v>340</v>
-      </c>
-      <c r="H79" s="5"/>
-    </row>
-    <row r="80" customFormat="false" ht="23.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A80" s="5" t="n">
+        <v>8</v>
+      </c>
+      <c r="B79" s="8" t="s">
+        <v>157</v>
+      </c>
+      <c r="C79" s="8" t="s">
+        <v>158</v>
+      </c>
+      <c r="D79" s="0"/>
+      <c r="F79" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="G79" s="1" t="n">
+        <v>70</v>
+      </c>
+      <c r="H79" s="0" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="80" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A80" s="1" t="n">
         <f aca="false">A79+1</f>
-        <v>4</v>
-      </c>
-      <c r="B80" s="6" t="s">
-        <v>152</v>
-      </c>
-      <c r="C80" s="7" t="s">
-        <v>157</v>
-      </c>
-      <c r="D80" s="5"/>
-      <c r="E80" s="7"/>
-      <c r="F80" s="5" t="s">
-        <v>154</v>
-      </c>
-      <c r="G80" s="5" t="n">
-        <v>10</v>
-      </c>
-      <c r="H80" s="5"/>
-    </row>
-    <row r="81" customFormat="false" ht="23.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A81" s="5" t="n">
-        <f aca="false">A80+1</f>
+        <v>9</v>
+      </c>
+      <c r="B80" s="8" t="s">
+        <v>161</v>
+      </c>
+      <c r="C80" s="8" t="s">
+        <v>162</v>
+      </c>
+      <c r="D80" s="0"/>
+      <c r="F80" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="G80" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="B81" s="6" t="s">
-        <v>152</v>
-      </c>
-      <c r="C81" s="7" t="s">
-        <v>158</v>
-      </c>
-      <c r="D81" s="5"/>
-      <c r="E81" s="7"/>
-      <c r="F81" s="5" t="s">
-        <v>154</v>
-      </c>
-      <c r="G81" s="5" t="n">
-        <v>20</v>
-      </c>
-      <c r="H81" s="5"/>
+      <c r="H80" s="0"/>
+    </row>
+    <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A81" s="0"/>
+      <c r="B81" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="C81" s="0"/>
+      <c r="D81" s="0"/>
+      <c r="F81" s="0"/>
+      <c r="G81" s="0"/>
+      <c r="H81" s="0"/>
     </row>
     <row r="82" customFormat="false" ht="23.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="5" t="n">
-        <f aca="false">A81+1</f>
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="B82" s="6" t="s">
-        <v>159</v>
+        <v>164</v>
       </c>
       <c r="C82" s="7" t="s">
-        <v>160</v>
+        <v>165</v>
       </c>
       <c r="D82" s="5"/>
       <c r="E82" s="7"/>
       <c r="F82" s="5" t="s">
-        <v>154</v>
+        <v>159</v>
       </c>
       <c r="G82" s="5" t="n">
-        <v>30</v>
+        <v>450</v>
       </c>
       <c r="H82" s="5"/>
     </row>
-    <row r="83" customFormat="false" ht="35.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="83" customFormat="false" ht="23.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="5" t="n">
         <f aca="false">A82+1</f>
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="B83" s="6" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="C83" s="7" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="D83" s="5"/>
       <c r="E83" s="7"/>
       <c r="F83" s="5" t="s">
-        <v>154</v>
+        <v>159</v>
       </c>
       <c r="G83" s="5" t="n">
-        <v>60</v>
+        <v>270</v>
       </c>
       <c r="H83" s="5"/>
     </row>
     <row r="84" customFormat="false" ht="23.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="5" t="n">
         <f aca="false">A83+1</f>
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="B84" s="6" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C84" s="7" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="D84" s="5"/>
       <c r="E84" s="7"/>
       <c r="F84" s="5" t="s">
-        <v>154</v>
+        <v>159</v>
       </c>
       <c r="G84" s="5" t="n">
-        <v>200</v>
+        <v>340</v>
       </c>
       <c r="H84" s="5"/>
     </row>
     <row r="85" customFormat="false" ht="23.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="5" t="n">
         <f aca="false">A84+1</f>
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="B85" s="6" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C85" s="7" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="D85" s="5"/>
       <c r="E85" s="7"/>
       <c r="F85" s="5" t="s">
-        <v>154</v>
+        <v>159</v>
       </c>
       <c r="G85" s="5" t="n">
-        <v>60</v>
+        <v>10</v>
       </c>
       <c r="H85" s="5"/>
     </row>
     <row r="86" customFormat="false" ht="23.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="5" t="n">
         <f aca="false">A85+1</f>
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="B86" s="6" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C86" s="7" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="D86" s="5"/>
       <c r="E86" s="7"/>
       <c r="F86" s="5" t="s">
-        <v>154</v>
+        <v>159</v>
       </c>
       <c r="G86" s="5" t="n">
-        <v>260</v>
+        <v>20</v>
       </c>
       <c r="H86" s="5"/>
     </row>
     <row r="87" customFormat="false" ht="23.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="5" t="n">
         <f aca="false">A86+1</f>
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="B87" s="6" t="s">
-        <v>163</v>
+        <v>170</v>
       </c>
       <c r="C87" s="7" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="D87" s="5"/>
       <c r="E87" s="7"/>
       <c r="F87" s="5" t="s">
-        <v>154</v>
+        <v>159</v>
       </c>
       <c r="G87" s="5" t="n">
-        <v>530</v>
+        <v>30</v>
       </c>
       <c r="H87" s="5"/>
     </row>
-    <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="88" customFormat="false" ht="23.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="5" t="n">
         <f aca="false">A87+1</f>
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="B88" s="6" t="s">
-        <v>168</v>
-      </c>
-      <c r="C88" s="7" t="n">
-        <v>40183</v>
+        <v>172</v>
+      </c>
+      <c r="C88" s="7" t="s">
+        <v>173</v>
       </c>
       <c r="D88" s="5"/>
       <c r="E88" s="7"/>
       <c r="F88" s="5" t="s">
-        <v>154</v>
+        <v>159</v>
       </c>
       <c r="G88" s="5" t="n">
-        <v>130</v>
+        <v>200</v>
       </c>
       <c r="H88" s="5"/>
     </row>
-    <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A89" s="0"/>
-      <c r="B89" s="4" t="s">
-        <v>169</v>
-      </c>
-      <c r="D89" s="0"/>
-      <c r="F89" s="0"/>
-      <c r="G89" s="0"/>
-      <c r="H89" s="0"/>
-    </row>
-    <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="89" customFormat="false" ht="23.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A89" s="5" t="n">
+        <f aca="false">A88+1</f>
+        <v>8</v>
+      </c>
+      <c r="B89" s="6" t="s">
+        <v>172</v>
+      </c>
+      <c r="C89" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="D89" s="5"/>
+      <c r="E89" s="7"/>
+      <c r="F89" s="5" t="s">
+        <v>159</v>
+      </c>
+      <c r="G89" s="5" t="n">
+        <v>60</v>
+      </c>
+      <c r="H89" s="5"/>
+    </row>
+    <row r="90" customFormat="false" ht="23.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="5" t="n">
-        <v>1</v>
+        <f aca="false">A89+1</f>
+        <v>9</v>
       </c>
       <c r="B90" s="6" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="C90" s="7" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="D90" s="5"/>
-      <c r="E90" s="7" t="s">
-        <v>33</v>
-      </c>
+      <c r="E90" s="7"/>
       <c r="F90" s="5" t="s">
-        <v>12</v>
+        <v>159</v>
       </c>
       <c r="G90" s="5" t="n">
-        <v>4</v>
+        <v>260</v>
       </c>
       <c r="H90" s="5"/>
     </row>
-    <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="91" customFormat="false" ht="23.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="5" t="n">
-        <v>2</v>
+        <f aca="false">A90+1</f>
+        <v>10</v>
       </c>
       <c r="B91" s="6" t="s">
         <v>172</v>
       </c>
       <c r="C91" s="7" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="D91" s="5"/>
-      <c r="E91" s="7" t="s">
-        <v>33</v>
-      </c>
+      <c r="E91" s="7"/>
       <c r="F91" s="5" t="s">
-        <v>12</v>
+        <v>159</v>
       </c>
       <c r="G91" s="5" t="n">
-        <v>5</v>
+        <v>530</v>
       </c>
       <c r="H91" s="5"/>
     </row>
     <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="5" t="n">
-        <v>3</v>
+        <f aca="false">A91+1</f>
+        <v>11</v>
       </c>
       <c r="B92" s="6" t="s">
-        <v>174</v>
-      </c>
-      <c r="C92" s="7" t="s">
-        <v>175</v>
+        <v>177</v>
+      </c>
+      <c r="C92" s="7" t="n">
+        <v>40183</v>
       </c>
       <c r="D92" s="5"/>
-      <c r="E92" s="7" t="s">
-        <v>33</v>
-      </c>
+      <c r="E92" s="7"/>
       <c r="F92" s="5" t="s">
-        <v>12</v>
+        <v>159</v>
       </c>
       <c r="G92" s="5" t="n">
-        <v>8</v>
+        <v>130</v>
       </c>
       <c r="H92" s="5"/>
     </row>
     <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="0"/>
       <c r="B93" s="4" t="s">
-        <v>176</v>
-      </c>
+        <v>178</v>
+      </c>
+      <c r="C93" s="0"/>
       <c r="D93" s="0"/>
       <c r="F93" s="0"/>
       <c r="G93" s="0"/>
@@ -3104,20 +3148,20 @@
         <v>1</v>
       </c>
       <c r="B94" s="6" t="s">
-        <v>177</v>
-      </c>
-      <c r="C94" s="7" t="n">
-        <v>91916</v>
+        <v>179</v>
+      </c>
+      <c r="C94" s="7" t="s">
+        <v>180</v>
       </c>
       <c r="D94" s="5"/>
       <c r="E94" s="7" t="s">
         <v>33</v>
       </c>
       <c r="F94" s="5" t="s">
-        <v>154</v>
+        <v>12</v>
       </c>
       <c r="G94" s="5" t="n">
-        <v>560</v>
+        <v>4</v>
       </c>
       <c r="H94" s="5"/>
     </row>
@@ -3126,20 +3170,20 @@
         <v>2</v>
       </c>
       <c r="B95" s="6" t="s">
-        <v>178</v>
-      </c>
-      <c r="C95" s="7" t="n">
-        <v>91920</v>
+        <v>181</v>
+      </c>
+      <c r="C95" s="7" t="s">
+        <v>182</v>
       </c>
       <c r="D95" s="5"/>
       <c r="E95" s="7" t="s">
         <v>33</v>
       </c>
       <c r="F95" s="5" t="s">
-        <v>154</v>
+        <v>12</v>
       </c>
       <c r="G95" s="5" t="n">
-        <v>250</v>
+        <v>5</v>
       </c>
       <c r="H95" s="5"/>
     </row>
@@ -3148,276 +3192,261 @@
         <v>3</v>
       </c>
       <c r="B96" s="6" t="s">
-        <v>179</v>
-      </c>
-      <c r="C96" s="7" t="n">
-        <v>91925</v>
+        <v>183</v>
+      </c>
+      <c r="C96" s="7" t="s">
+        <v>184</v>
       </c>
       <c r="D96" s="5"/>
       <c r="E96" s="7" t="s">
         <v>33</v>
       </c>
       <c r="F96" s="5" t="s">
-        <v>154</v>
+        <v>12</v>
       </c>
       <c r="G96" s="5" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="H96" s="5"/>
     </row>
     <row r="97" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A97" s="5" t="n">
-        <v>4</v>
-      </c>
-      <c r="B97" s="6" t="s">
-        <v>180</v>
-      </c>
-      <c r="C97" s="7" t="n">
-        <v>51016</v>
-      </c>
-      <c r="D97" s="5"/>
-      <c r="E97" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="F97" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="G97" s="5" t="n">
-        <v>200</v>
-      </c>
-      <c r="H97" s="5"/>
+      <c r="A97" s="0"/>
+      <c r="B97" s="4" t="s">
+        <v>185</v>
+      </c>
+      <c r="C97" s="0"/>
+      <c r="D97" s="0"/>
+      <c r="F97" s="0"/>
+      <c r="G97" s="0"/>
+      <c r="H97" s="0"/>
     </row>
     <row r="98" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A98" s="5" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B98" s="6" t="s">
-        <v>181</v>
+        <v>186</v>
       </c>
       <c r="C98" s="7" t="n">
-        <v>51020</v>
+        <v>91916</v>
       </c>
       <c r="D98" s="5"/>
       <c r="E98" s="7" t="s">
         <v>33</v>
       </c>
       <c r="F98" s="5" t="s">
-        <v>12</v>
+        <v>159</v>
       </c>
       <c r="G98" s="5" t="n">
-        <v>100</v>
+        <v>560</v>
       </c>
       <c r="H98" s="5"/>
     </row>
     <row r="99" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A99" s="5" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B99" s="6" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="C99" s="7" t="n">
-        <v>51025</v>
+        <v>91920</v>
       </c>
       <c r="D99" s="5"/>
       <c r="E99" s="7" t="s">
         <v>33</v>
       </c>
       <c r="F99" s="5" t="s">
-        <v>12</v>
+        <v>159</v>
       </c>
       <c r="G99" s="5" t="n">
+        <v>250</v>
+      </c>
+      <c r="H99" s="5"/>
+    </row>
+    <row r="100" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A100" s="5" t="n">
+        <v>3</v>
+      </c>
+      <c r="B100" s="6" t="s">
+        <v>188</v>
+      </c>
+      <c r="C100" s="7" t="n">
+        <v>91925</v>
+      </c>
+      <c r="D100" s="5"/>
+      <c r="E100" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="F100" s="5" t="s">
+        <v>159</v>
+      </c>
+      <c r="G100" s="5" t="n">
         <v>10</v>
       </c>
-      <c r="H99" s="5"/>
-    </row>
-    <row r="100" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A100" s="1" t="n">
+      <c r="H100" s="5"/>
+    </row>
+    <row r="101" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A101" s="5" t="n">
+        <v>4</v>
+      </c>
+      <c r="B101" s="6" t="s">
+        <v>189</v>
+      </c>
+      <c r="C101" s="7" t="n">
+        <v>51016</v>
+      </c>
+      <c r="D101" s="5"/>
+      <c r="E101" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="F101" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G101" s="5" t="n">
+        <v>200</v>
+      </c>
+      <c r="H101" s="5"/>
+    </row>
+    <row r="102" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A102" s="5" t="n">
+        <v>5</v>
+      </c>
+      <c r="B102" s="6" t="s">
+        <v>190</v>
+      </c>
+      <c r="C102" s="7" t="n">
+        <v>51020</v>
+      </c>
+      <c r="D102" s="5"/>
+      <c r="E102" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="F102" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G102" s="5" t="n">
+        <v>100</v>
+      </c>
+      <c r="H102" s="5"/>
+    </row>
+    <row r="103" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A103" s="5" t="n">
+        <v>6</v>
+      </c>
+      <c r="B103" s="6" t="s">
+        <v>191</v>
+      </c>
+      <c r="C103" s="7" t="n">
+        <v>51025</v>
+      </c>
+      <c r="D103" s="5"/>
+      <c r="E103" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="F103" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G103" s="5" t="n">
+        <v>10</v>
+      </c>
+      <c r="H103" s="5"/>
+    </row>
+    <row r="104" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A104" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="B100" s="0" t="s">
-        <v>183</v>
-      </c>
-      <c r="D100" s="0"/>
-      <c r="F100" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="G100" s="1" t="n">
+      <c r="B104" s="0" t="s">
+        <v>192</v>
+      </c>
+      <c r="C104" s="0"/>
+      <c r="D104" s="0"/>
+      <c r="F104" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="G104" s="1" t="n">
         <f aca="false">7+7+6+3+5+4+3</f>
         <v>35</v>
       </c>
-      <c r="H100" s="0"/>
-    </row>
-    <row r="101" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A101" s="0"/>
-      <c r="B101" s="4" t="s">
-        <v>184</v>
-      </c>
-      <c r="D101" s="0"/>
-      <c r="F101" s="0"/>
-      <c r="G101" s="0"/>
-      <c r="H101" s="0"/>
-    </row>
-    <row r="102" customFormat="false" ht="23.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A102" s="5" t="n">
+      <c r="H104" s="0"/>
+    </row>
+    <row r="105" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A105" s="0"/>
+      <c r="B105" s="4" t="s">
+        <v>193</v>
+      </c>
+      <c r="C105" s="0"/>
+      <c r="D105" s="0"/>
+      <c r="F105" s="0"/>
+      <c r="G105" s="0"/>
+      <c r="H105" s="0"/>
+    </row>
+    <row r="106" customFormat="false" ht="23.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A106" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="B102" s="6" t="s">
-        <v>185</v>
-      </c>
-      <c r="C102" s="7" t="s">
-        <v>186</v>
-      </c>
-      <c r="D102" s="5"/>
-      <c r="E102" s="7" t="s">
-        <v>187</v>
-      </c>
-      <c r="F102" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="G102" s="5" t="n">
+      <c r="B106" s="6" t="s">
+        <v>194</v>
+      </c>
+      <c r="C106" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="D106" s="5"/>
+      <c r="E106" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="F106" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G106" s="5" t="n">
         <v>100</v>
       </c>
-      <c r="H102" s="5"/>
-    </row>
-    <row r="103" customFormat="false" ht="23.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A103" s="5" t="n">
+      <c r="H106" s="5"/>
+    </row>
+    <row r="107" customFormat="false" ht="23.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A107" s="5" t="n">
         <v>2</v>
       </c>
-      <c r="B103" s="6" t="s">
-        <v>188</v>
-      </c>
-      <c r="C103" s="5" t="s">
-        <v>189</v>
-      </c>
-      <c r="D103" s="5"/>
-      <c r="E103" s="5" t="s">
-        <v>187</v>
-      </c>
-      <c r="F103" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="G103" s="17" t="n">
+      <c r="B107" s="6" t="s">
+        <v>197</v>
+      </c>
+      <c r="C107" s="5" t="s">
+        <v>198</v>
+      </c>
+      <c r="D107" s="5"/>
+      <c r="E107" s="5" t="s">
+        <v>196</v>
+      </c>
+      <c r="F107" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G107" s="17" t="n">
         <v>100</v>
       </c>
-      <c r="H103" s="5"/>
-    </row>
-    <row r="104" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B104" s="4" t="s">
-        <v>190</v>
-      </c>
-      <c r="D104" s="0"/>
-      <c r="F104" s="0"/>
-      <c r="G104" s="0"/>
-    </row>
-    <row r="105" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A105" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B105" s="0" t="s">
-        <v>191</v>
-      </c>
-      <c r="C105" s="1" t="s">
-        <v>192</v>
-      </c>
-      <c r="D105" s="1" t="n">
-        <v>41856</v>
-      </c>
-      <c r="E105" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="F105" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="G105" s="1" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="106" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A106" s="1" t="n">
-        <f aca="false">A105+1</f>
-        <v>2</v>
-      </c>
-      <c r="B106" s="0" t="s">
-        <v>193</v>
-      </c>
-      <c r="C106" s="1" t="s">
-        <v>194</v>
-      </c>
-      <c r="D106" s="1" t="n">
-        <v>41863</v>
-      </c>
-      <c r="E106" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="F106" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="G106" s="1" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="107" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A107" s="1" t="n">
-        <f aca="false">A106+1</f>
-        <v>3</v>
-      </c>
-      <c r="B107" s="0" t="s">
-        <v>195</v>
-      </c>
-      <c r="C107" s="1" t="s">
-        <v>196</v>
-      </c>
-      <c r="D107" s="1" t="n">
-        <v>62389</v>
-      </c>
-      <c r="E107" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="F107" s="1" t="s">
-        <v>197</v>
-      </c>
-      <c r="G107" s="1" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="108" customFormat="false" ht="23.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A108" s="1" t="n">
-        <f aca="false">A107+1</f>
-        <v>4</v>
-      </c>
-      <c r="B108" s="8" t="s">
-        <v>198</v>
-      </c>
-      <c r="C108" s="1" t="s">
+      <c r="H107" s="5"/>
+    </row>
+    <row r="108" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A108" s="0"/>
+      <c r="B108" s="4" t="s">
         <v>199</v>
       </c>
-      <c r="D108" s="1" t="n">
-        <v>41663</v>
-      </c>
-      <c r="E108" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="F108" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="G108" s="1" t="n">
-        <v>1</v>
-      </c>
+      <c r="C108" s="0"/>
+      <c r="D108" s="0"/>
+      <c r="F108" s="0"/>
+      <c r="G108" s="0"/>
     </row>
     <row r="109" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A109" s="1" t="n">
-        <f aca="false">A108+1</f>
-        <v>5</v>
-      </c>
-      <c r="B109" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="B109" s="0" t="s">
         <v>200</v>
       </c>
       <c r="C109" s="1" t="s">
         <v>201</v>
       </c>
       <c r="D109" s="1" t="n">
-        <v>41693</v>
+        <v>41856</v>
       </c>
       <c r="E109" s="1" t="s">
         <v>36</v>
@@ -3426,13 +3455,13 @@
         <v>12</v>
       </c>
       <c r="G109" s="1" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="110" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A110" s="1" t="n">
         <f aca="false">A109+1</f>
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B110" s="0" t="s">
         <v>202</v>
@@ -3441,22 +3470,22 @@
         <v>203</v>
       </c>
       <c r="D110" s="1" t="n">
-        <v>62308</v>
+        <v>41863</v>
       </c>
       <c r="E110" s="1" t="s">
         <v>36</v>
       </c>
       <c r="F110" s="1" t="s">
-        <v>197</v>
+        <v>12</v>
       </c>
       <c r="G110" s="1" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="111" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A111" s="1" t="n">
         <f aca="false">A110+1</f>
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="B111" s="0" t="s">
         <v>204</v>
@@ -3464,26 +3493,32 @@
       <c r="C111" s="1" t="s">
         <v>205</v>
       </c>
+      <c r="D111" s="1" t="n">
+        <v>62389</v>
+      </c>
       <c r="E111" s="1" t="s">
         <v>36</v>
       </c>
       <c r="F111" s="1" t="s">
-        <v>12</v>
+        <v>206</v>
       </c>
       <c r="G111" s="1" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="112" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="112" customFormat="false" ht="23.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A112" s="1" t="n">
         <f aca="false">A111+1</f>
-        <v>8</v>
-      </c>
-      <c r="B112" s="0" t="s">
-        <v>206</v>
+        <v>4</v>
+      </c>
+      <c r="B112" s="8" t="s">
+        <v>207</v>
       </c>
       <c r="C112" s="1" t="s">
-        <v>207</v>
+        <v>208</v>
+      </c>
+      <c r="D112" s="1" t="n">
+        <v>41663</v>
       </c>
       <c r="E112" s="1" t="s">
         <v>36</v>
@@ -3492,22 +3527,25 @@
         <v>12</v>
       </c>
       <c r="G112" s="1" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="113" customFormat="false" ht="23.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="113" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A113" s="1" t="n">
         <f aca="false">A112+1</f>
-        <v>9</v>
-      </c>
-      <c r="B113" s="0" t="s">
-        <v>208</v>
-      </c>
-      <c r="C113" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="B113" s="8" t="s">
         <v>209</v>
       </c>
+      <c r="C113" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="D113" s="1" t="n">
+        <v>41693</v>
+      </c>
       <c r="E113" s="1" t="s">
-        <v>210</v>
+        <v>36</v>
       </c>
       <c r="F113" s="1" t="s">
         <v>12</v>
@@ -3519,7 +3557,7 @@
     <row r="114" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A114" s="1" t="n">
         <f aca="false">A113+1</f>
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B114" s="0" t="s">
         <v>211</v>
@@ -3527,11 +3565,14 @@
       <c r="C114" s="1" t="s">
         <v>212</v>
       </c>
+      <c r="D114" s="1" t="n">
+        <v>62308</v>
+      </c>
       <c r="E114" s="1" t="s">
         <v>36</v>
       </c>
       <c r="F114" s="1" t="s">
-        <v>12</v>
+        <v>206</v>
       </c>
       <c r="G114" s="1" t="n">
         <v>1</v>
@@ -3540,7 +3581,7 @@
     <row r="115" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A115" s="1" t="n">
         <f aca="false">A114+1</f>
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="B115" s="0" t="s">
         <v>213</v>
@@ -3549,46 +3590,67 @@
         <v>214</v>
       </c>
       <c r="E115" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="F115" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G115" s="1" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="116" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A116" s="1" t="n">
+        <f aca="false">A115+1</f>
+        <v>8</v>
+      </c>
+      <c r="B116" s="0" t="s">
         <v>215</v>
       </c>
-      <c r="F115" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="G115" s="1" t="n">
+      <c r="C116" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="E116" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="F116" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G116" s="1" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="117" customFormat="false" ht="23.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A117" s="1" t="n">
+        <f aca="false">A116+1</f>
+        <v>9</v>
+      </c>
+      <c r="B117" s="0" t="s">
+        <v>217</v>
+      </c>
+      <c r="C117" s="9" t="s">
+        <v>218</v>
+      </c>
+      <c r="E117" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="F117" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G117" s="1" t="n">
         <v>1</v>
-      </c>
-    </row>
-    <row r="117" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A117" s="1" t="n">
-        <f aca="false">A115+1</f>
-        <v>12</v>
-      </c>
-      <c r="B117" s="0" t="s">
-        <v>216</v>
-      </c>
-      <c r="C117" s="1" t="s">
-        <v>217</v>
-      </c>
-      <c r="E117" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="F117" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="G117" s="1" t="n">
-        <v>9</v>
       </c>
     </row>
     <row r="118" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A118" s="1" t="n">
         <f aca="false">A117+1</f>
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B118" s="0" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="C118" s="1" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="E118" s="1" t="s">
         <v>36</v>
@@ -3597,61 +3659,46 @@
         <v>12</v>
       </c>
       <c r="G118" s="1" t="n">
-        <v>12</v>
+        <v>1</v>
       </c>
     </row>
     <row r="119" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A119" s="1" t="n">
         <f aca="false">A118+1</f>
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B119" s="0" t="s">
-        <v>216</v>
+        <v>222</v>
       </c>
       <c r="C119" s="1" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="E119" s="1" t="s">
-        <v>36</v>
+        <v>224</v>
       </c>
       <c r="F119" s="1" t="s">
         <v>12</v>
       </c>
       <c r="G119" s="1" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="120" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A120" s="1" t="n">
-        <f aca="false">A119+1</f>
-        <v>15</v>
-      </c>
-      <c r="B120" s="0" t="s">
-        <v>216</v>
-      </c>
-      <c r="C120" s="1" t="s">
-        <v>220</v>
-      </c>
-      <c r="E120" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="F120" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="G120" s="1" t="n">
-        <v>3</v>
-      </c>
+      <c r="A120" s="0"/>
+      <c r="C120" s="0"/>
+      <c r="F120" s="0"/>
+      <c r="G120" s="0"/>
     </row>
     <row r="121" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A121" s="1" t="n">
-        <f aca="false">A120+1</f>
-        <v>16</v>
+        <f aca="false">A119+1</f>
+        <v>12</v>
       </c>
       <c r="B121" s="0" t="s">
-        <v>216</v>
+        <v>225</v>
       </c>
       <c r="C121" s="1" t="s">
-        <v>221</v>
+        <v>226</v>
       </c>
       <c r="E121" s="1" t="s">
         <v>36</v>
@@ -3660,19 +3707,19 @@
         <v>12</v>
       </c>
       <c r="G121" s="1" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
     </row>
     <row r="122" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A122" s="1" t="n">
         <f aca="false">A121+1</f>
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="B122" s="0" t="s">
-        <v>216</v>
+        <v>225</v>
       </c>
       <c r="C122" s="1" t="s">
-        <v>222</v>
+        <v>227</v>
       </c>
       <c r="E122" s="1" t="s">
         <v>36</v>
@@ -3681,19 +3728,40 @@
         <v>12</v>
       </c>
       <c r="G122" s="1" t="n">
-        <v>2</v>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="123" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A123" s="1" t="n">
+        <f aca="false">A122+1</f>
+        <v>14</v>
+      </c>
+      <c r="B123" s="0" t="s">
+        <v>225</v>
+      </c>
+      <c r="C123" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="E123" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="F123" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G123" s="1" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="124" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A124" s="1" t="n">
-        <f aca="false">A122+1</f>
-        <v>18</v>
+        <f aca="false">A123+1</f>
+        <v>15</v>
       </c>
       <c r="B124" s="0" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="C124" s="1" t="s">
-        <v>224</v>
+        <v>229</v>
       </c>
       <c r="E124" s="1" t="s">
         <v>36</v>
@@ -3702,19 +3770,19 @@
         <v>12</v>
       </c>
       <c r="G124" s="1" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="125" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A125" s="1" t="n">
         <f aca="false">A124+1</f>
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B125" s="0" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="C125" s="1" t="s">
-        <v>225</v>
+        <v>230</v>
       </c>
       <c r="E125" s="1" t="s">
         <v>36</v>
@@ -3723,19 +3791,19 @@
         <v>12</v>
       </c>
       <c r="G125" s="1" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="126" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A126" s="1" t="n">
         <f aca="false">A125+1</f>
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B126" s="0" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="C126" s="1" t="s">
-        <v>226</v>
+        <v>231</v>
       </c>
       <c r="E126" s="1" t="s">
         <v>36</v>
@@ -3744,40 +3812,25 @@
         <v>12</v>
       </c>
       <c r="G126" s="1" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="127" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A127" s="1" t="n">
-        <f aca="false">A126+1</f>
-        <v>21</v>
-      </c>
-      <c r="B127" s="0" t="s">
-        <v>223</v>
-      </c>
-      <c r="C127" s="1" t="s">
-        <v>227</v>
-      </c>
-      <c r="E127" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="F127" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="G127" s="1" t="n">
-        <v>4</v>
-      </c>
+      <c r="A127" s="0"/>
+      <c r="C127" s="0"/>
+      <c r="F127" s="0"/>
+      <c r="G127" s="0"/>
     </row>
     <row r="128" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A128" s="1" t="n">
-        <f aca="false">A127+1</f>
-        <v>22</v>
+        <f aca="false">A126+1</f>
+        <v>18</v>
       </c>
       <c r="B128" s="0" t="s">
-        <v>223</v>
+        <v>232</v>
       </c>
       <c r="C128" s="1" t="s">
-        <v>228</v>
+        <v>233</v>
       </c>
       <c r="E128" s="1" t="s">
         <v>36</v>
@@ -3786,19 +3839,40 @@
         <v>12</v>
       </c>
       <c r="G128" s="1" t="n">
-        <v>3</v>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="129" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A129" s="1" t="n">
+        <f aca="false">A128+1</f>
+        <v>19</v>
+      </c>
+      <c r="B129" s="0" t="s">
+        <v>232</v>
+      </c>
+      <c r="C129" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="E129" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="F129" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G129" s="1" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="130" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A130" s="1" t="n">
-        <f aca="false">A128+1</f>
-        <v>23</v>
+        <f aca="false">A129+1</f>
+        <v>20</v>
       </c>
       <c r="B130" s="0" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="C130" s="1" t="s">
-        <v>230</v>
+        <v>235</v>
       </c>
       <c r="E130" s="1" t="s">
         <v>36</v>
@@ -3807,19 +3881,19 @@
         <v>12</v>
       </c>
       <c r="G130" s="1" t="n">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="131" customFormat="false" ht="25.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="131" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A131" s="1" t="n">
         <f aca="false">A130+1</f>
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B131" s="0" t="s">
-        <v>229</v>
-      </c>
-      <c r="C131" s="9" t="s">
-        <v>231</v>
+        <v>232</v>
+      </c>
+      <c r="C131" s="1" t="s">
+        <v>236</v>
       </c>
       <c r="E131" s="1" t="s">
         <v>36</v>
@@ -3828,73 +3902,67 @@
         <v>12</v>
       </c>
       <c r="G131" s="1" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="132" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A132" s="1" t="n">
         <f aca="false">A131+1</f>
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B132" s="0" t="s">
         <v>232</v>
       </c>
       <c r="C132" s="1" t="s">
-        <v>233</v>
+        <v>237</v>
+      </c>
+      <c r="E132" s="1" t="s">
+        <v>36</v>
       </c>
       <c r="F132" s="1" t="s">
         <v>12</v>
       </c>
       <c r="G132" s="1" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="133" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A133" s="1" t="n">
+      <c r="A133" s="0"/>
+      <c r="C133" s="0"/>
+      <c r="F133" s="0"/>
+      <c r="G133" s="0"/>
+    </row>
+    <row r="134" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A134" s="1" t="n">
         <f aca="false">A132+1</f>
-        <v>26</v>
-      </c>
-      <c r="B133" s="0" t="s">
-        <v>234</v>
-      </c>
-      <c r="C133" s="1" t="s">
-        <v>235</v>
-      </c>
-      <c r="F133" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="G133" s="1" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="134" customFormat="false" ht="23.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A134" s="1" t="n">
-        <f aca="false">A133+1</f>
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="B134" s="0" t="s">
-        <v>236</v>
-      </c>
-      <c r="C134" s="9" t="s">
-        <v>237</v>
+        <v>238</v>
+      </c>
+      <c r="C134" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="E134" s="1" t="s">
+        <v>36</v>
       </c>
       <c r="F134" s="1" t="s">
         <v>12</v>
       </c>
       <c r="G134" s="1" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="135" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="135" customFormat="false" ht="25.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A135" s="1" t="n">
         <f aca="false">A134+1</f>
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="B135" s="0" t="s">
         <v>238</v>
       </c>
-      <c r="C135" s="1" t="s">
-        <v>239</v>
+      <c r="C135" s="9" t="s">
+        <v>240</v>
       </c>
       <c r="E135" s="1" t="s">
         <v>36</v>
@@ -3903,21 +3971,18 @@
         <v>12</v>
       </c>
       <c r="G135" s="1" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="136" customFormat="false" ht="35.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="136" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A136" s="1" t="n">
         <f aca="false">A135+1</f>
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="B136" s="0" t="s">
-        <v>240</v>
-      </c>
-      <c r="C136" s="9" t="s">
         <v>241</v>
       </c>
-      <c r="E136" s="1" t="s">
+      <c r="C136" s="1" t="s">
         <v>242</v>
       </c>
       <c r="F136" s="1" t="s">
@@ -3928,21 +3993,33 @@
       </c>
     </row>
     <row r="137" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C137" s="9"/>
-    </row>
-    <row r="138" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A137" s="1" t="n">
+        <f aca="false">A136+1</f>
+        <v>26</v>
+      </c>
+      <c r="B137" s="0" t="s">
+        <v>243</v>
+      </c>
+      <c r="C137" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="F137" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G137" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="138" customFormat="false" ht="23.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A138" s="1" t="n">
-        <f aca="false">A136+1</f>
-        <v>30</v>
+        <f aca="false">A137+1</f>
+        <v>27</v>
       </c>
       <c r="B138" s="0" t="s">
-        <v>243</v>
-      </c>
-      <c r="C138" s="1" t="s">
-        <v>244</v>
-      </c>
-      <c r="E138" s="1" t="s">
-        <v>36</v>
+        <v>153</v>
+      </c>
+      <c r="C138" s="9" t="s">
+        <v>245</v>
       </c>
       <c r="F138" s="1" t="s">
         <v>12</v>
@@ -3954,13 +4031,13 @@
     <row r="139" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A139" s="1" t="n">
         <f aca="false">A138+1</f>
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="B139" s="0" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="C139" s="1" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="E139" s="1" t="s">
         <v>36</v>
@@ -3969,22 +4046,22 @@
         <v>12</v>
       </c>
       <c r="G139" s="1" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="140" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="140" customFormat="false" ht="35.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A140" s="1" t="n">
         <f aca="false">A139+1</f>
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="B140" s="0" t="s">
-        <v>243</v>
-      </c>
-      <c r="C140" s="1" t="s">
-        <v>246</v>
+        <v>248</v>
+      </c>
+      <c r="C140" s="9" t="s">
+        <v>249</v>
       </c>
       <c r="E140" s="1" t="s">
-        <v>36</v>
+        <v>250</v>
       </c>
       <c r="F140" s="1" t="s">
         <v>12</v>
@@ -3994,36 +4071,21 @@
       </c>
     </row>
     <row r="141" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A141" s="1" t="n">
-        <f aca="false">A140+1</f>
-        <v>33</v>
-      </c>
-      <c r="B141" s="0" t="s">
-        <v>243</v>
-      </c>
-      <c r="C141" s="1" t="s">
-        <v>247</v>
-      </c>
-      <c r="E141" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="F141" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="G141" s="1" t="n">
-        <v>65</v>
-      </c>
+      <c r="A141" s="0"/>
+      <c r="C141" s="9"/>
+      <c r="F141" s="0"/>
+      <c r="G141" s="0"/>
     </row>
     <row r="142" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A142" s="1" t="n">
-        <f aca="false">A141+1</f>
-        <v>34</v>
+        <f aca="false">A140+1</f>
+        <v>30</v>
       </c>
       <c r="B142" s="0" t="s">
-        <v>243</v>
+        <v>251</v>
       </c>
       <c r="C142" s="1" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="E142" s="1" t="s">
         <v>36</v>
@@ -4032,19 +4094,19 @@
         <v>12</v>
       </c>
       <c r="G142" s="1" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="143" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A143" s="1" t="n">
         <f aca="false">A142+1</f>
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="B143" s="0" t="s">
-        <v>243</v>
+        <v>251</v>
       </c>
       <c r="C143" s="1" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="E143" s="1" t="s">
         <v>36</v>
@@ -4053,19 +4115,19 @@
         <v>12</v>
       </c>
       <c r="G143" s="1" t="n">
-        <v>46</v>
+        <v>1</v>
       </c>
     </row>
     <row r="144" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A144" s="1" t="n">
         <f aca="false">A143+1</f>
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="B144" s="0" t="s">
-        <v>243</v>
+        <v>251</v>
       </c>
       <c r="C144" s="1" t="s">
-        <v>250</v>
+        <v>254</v>
       </c>
       <c r="E144" s="1" t="s">
         <v>36</v>
@@ -4074,19 +4136,19 @@
         <v>12</v>
       </c>
       <c r="G144" s="1" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="145" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A145" s="1" t="n">
         <f aca="false">A144+1</f>
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="B145" s="0" t="s">
-        <v>243</v>
+        <v>251</v>
       </c>
       <c r="C145" s="1" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="E145" s="1" t="s">
         <v>36</v>
@@ -4095,19 +4157,19 @@
         <v>12</v>
       </c>
       <c r="G145" s="1" t="n">
-        <v>23</v>
+        <v>65</v>
       </c>
     </row>
     <row r="146" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A146" s="1" t="n">
         <f aca="false">A145+1</f>
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="B146" s="0" t="s">
-        <v>243</v>
+        <v>251</v>
       </c>
       <c r="C146" s="1" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="E146" s="1" t="s">
         <v>36</v>
@@ -4116,19 +4178,19 @@
         <v>12</v>
       </c>
       <c r="G146" s="1" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
     </row>
     <row r="147" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A147" s="1" t="n">
         <f aca="false">A146+1</f>
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="B147" s="0" t="s">
-        <v>243</v>
+        <v>251</v>
       </c>
       <c r="C147" s="1" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="E147" s="1" t="s">
         <v>36</v>
@@ -4137,19 +4199,19 @@
         <v>12</v>
       </c>
       <c r="G147" s="1" t="n">
-        <v>2</v>
+        <v>46</v>
       </c>
     </row>
     <row r="148" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A148" s="1" t="n">
         <f aca="false">A147+1</f>
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="B148" s="0" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="C148" s="1" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="E148" s="1" t="s">
         <v>36</v>
@@ -4158,19 +4220,19 @@
         <v>12</v>
       </c>
       <c r="G148" s="1" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="149" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A149" s="1" t="n">
         <f aca="false">A148+1</f>
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="B149" s="0" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="C149" s="1" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="E149" s="1" t="s">
         <v>36</v>
@@ -4179,19 +4241,19 @@
         <v>12</v>
       </c>
       <c r="G149" s="1" t="n">
-        <v>8</v>
+        <v>23</v>
       </c>
     </row>
     <row r="150" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A150" s="1" t="n">
         <f aca="false">A149+1</f>
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="B150" s="0" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="C150" s="1" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="E150" s="1" t="s">
         <v>36</v>
@@ -4200,19 +4262,19 @@
         <v>12</v>
       </c>
       <c r="G150" s="1" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="151" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A151" s="1" t="n">
         <f aca="false">A150+1</f>
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="B151" s="0" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="C151" s="1" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="E151" s="1" t="s">
         <v>36</v>
@@ -4221,19 +4283,19 @@
         <v>12</v>
       </c>
       <c r="G151" s="1" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="152" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A152" s="1" t="n">
         <f aca="false">A151+1</f>
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="B152" s="0" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="C152" s="1" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="E152" s="1" t="s">
         <v>36</v>
@@ -4242,19 +4304,19 @@
         <v>12</v>
       </c>
       <c r="G152" s="1" t="n">
-        <v>13</v>
+        <v>1</v>
       </c>
     </row>
     <row r="153" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A153" s="1" t="n">
         <f aca="false">A152+1</f>
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="B153" s="0" t="s">
-        <v>261</v>
-      </c>
-      <c r="C153" s="1" t="n">
-        <v>12541</v>
+        <v>262</v>
+      </c>
+      <c r="C153" s="1" t="s">
+        <v>264</v>
       </c>
       <c r="E153" s="1" t="s">
         <v>36</v>
@@ -4263,19 +4325,19 @@
         <v>12</v>
       </c>
       <c r="G153" s="1" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
     </row>
     <row r="154" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A154" s="1" t="n">
         <f aca="false">A153+1</f>
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="B154" s="0" t="s">
         <v>262</v>
       </c>
-      <c r="C154" s="1" t="n">
-        <v>12535</v>
+      <c r="C154" s="1" t="s">
+        <v>265</v>
       </c>
       <c r="E154" s="1" t="s">
         <v>36</v>
@@ -4284,40 +4346,40 @@
         <v>12</v>
       </c>
       <c r="G154" s="1" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="155" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A155" s="1" t="n">
         <f aca="false">A154+1</f>
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="B155" s="0" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C155" s="1" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="E155" s="1" t="s">
-        <v>265</v>
+        <v>36</v>
       </c>
       <c r="F155" s="1" t="s">
         <v>12</v>
       </c>
       <c r="G155" s="1" t="n">
-        <v>25</v>
+        <v>1</v>
       </c>
     </row>
     <row r="156" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A156" s="1" t="n">
         <f aca="false">A155+1</f>
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="B156" s="0" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="C156" s="1" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="E156" s="1" t="s">
         <v>36</v>
@@ -4326,19 +4388,19 @@
         <v>12</v>
       </c>
       <c r="G156" s="1" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="157" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A157" s="1" t="n">
         <f aca="false">A156+1</f>
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="B157" s="0" t="s">
-        <v>266</v>
-      </c>
-      <c r="C157" s="1" t="s">
-        <v>268</v>
+        <v>269</v>
+      </c>
+      <c r="C157" s="1" t="n">
+        <v>12541</v>
       </c>
       <c r="E157" s="1" t="s">
         <v>36</v>
@@ -4347,40 +4409,61 @@
         <v>12</v>
       </c>
       <c r="G157" s="1" t="n">
-        <v>4</v>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="158" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A158" s="1" t="n">
+        <f aca="false">A157+1</f>
+        <v>46</v>
+      </c>
+      <c r="B158" s="0" t="s">
+        <v>270</v>
+      </c>
+      <c r="C158" s="1" t="n">
+        <v>12535</v>
+      </c>
+      <c r="E158" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="F158" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G158" s="1" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="159" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A159" s="1" t="n">
-        <f aca="false">A157+1</f>
-        <v>50</v>
+        <f aca="false">A158+1</f>
+        <v>47</v>
       </c>
       <c r="B159" s="0" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="C159" s="1" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="E159" s="1" t="s">
-        <v>36</v>
+        <v>273</v>
       </c>
       <c r="F159" s="1" t="s">
         <v>12</v>
       </c>
       <c r="G159" s="1" t="n">
-        <v>3</v>
+        <v>25</v>
       </c>
     </row>
     <row r="160" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A160" s="1" t="n">
         <f aca="false">A159+1</f>
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="B160" s="0" t="s">
-        <v>271</v>
-      </c>
-      <c r="C160" s="9" t="s">
-        <v>272</v>
+        <v>274</v>
+      </c>
+      <c r="C160" s="1" t="s">
+        <v>275</v>
       </c>
       <c r="E160" s="1" t="s">
         <v>36</v>
@@ -4389,19 +4472,19 @@
         <v>12</v>
       </c>
       <c r="G160" s="1" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="161" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A161" s="1" t="n">
         <f aca="false">A160+1</f>
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="B161" s="0" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="C161" s="1" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="E161" s="1" t="s">
         <v>36</v>
@@ -4410,106 +4493,109 @@
         <v>12</v>
       </c>
       <c r="G161" s="1" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="162" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A162" s="0"/>
+      <c r="C162" s="0"/>
+      <c r="F162" s="0"/>
+      <c r="G162" s="0"/>
+    </row>
+    <row r="163" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A163" s="1" t="n">
+        <f aca="false">A161+1</f>
+        <v>50</v>
+      </c>
+      <c r="B163" s="0" t="s">
+        <v>277</v>
+      </c>
+      <c r="C163" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="E163" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="F163" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G163" s="1" t="n">
         <v>3</v>
-      </c>
-    </row>
-    <row r="162" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A162" s="1" t="n">
-        <f aca="false">A161+1</f>
-        <v>53</v>
-      </c>
-      <c r="B162" s="0" t="s">
-        <v>271</v>
-      </c>
-      <c r="C162" s="9" t="s">
-        <v>275</v>
-      </c>
-      <c r="E162" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="F162" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="G162" s="1" t="n">
-        <v>6</v>
       </c>
     </row>
     <row r="164" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A164" s="1" t="n">
-        <f aca="false">A162+1</f>
-        <v>54</v>
+        <f aca="false">A163+1</f>
+        <v>51</v>
       </c>
       <c r="B164" s="0" t="s">
-        <v>276</v>
-      </c>
-      <c r="C164" s="1" t="s">
-        <v>277</v>
+        <v>279</v>
+      </c>
+      <c r="C164" s="9" t="s">
+        <v>280</v>
+      </c>
+      <c r="E164" s="1" t="s">
+        <v>36</v>
       </c>
       <c r="F164" s="1" t="s">
-        <v>154</v>
+        <v>12</v>
       </c>
       <c r="G164" s="1" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="165" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A165" s="1" t="n">
         <f aca="false">A164+1</f>
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="B165" s="0" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="C165" s="1" t="s">
-        <v>279</v>
+        <v>282</v>
+      </c>
+      <c r="E165" s="1" t="s">
+        <v>36</v>
       </c>
       <c r="F165" s="1" t="s">
-        <v>154</v>
+        <v>12</v>
       </c>
       <c r="G165" s="1" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="166" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A166" s="1" t="n">
         <f aca="false">A165+1</f>
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="B166" s="0" t="s">
-        <v>280</v>
-      </c>
-      <c r="C166" s="1" t="s">
-        <v>281</v>
+        <v>279</v>
+      </c>
+      <c r="C166" s="9" t="s">
+        <v>283</v>
+      </c>
+      <c r="E166" s="1" t="s">
+        <v>36</v>
       </c>
       <c r="F166" s="1" t="s">
-        <v>154</v>
+        <v>12</v>
       </c>
       <c r="G166" s="1" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="167" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A167" s="1" t="n">
-        <f aca="false">A166+1</f>
-        <v>57</v>
-      </c>
-      <c r="B167" s="0" t="s">
-        <v>282</v>
-      </c>
-      <c r="C167" s="1" t="s">
-        <v>283</v>
-      </c>
-      <c r="F167" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="G167" s="1" t="n">
-        <v>5</v>
-      </c>
+      <c r="A167" s="0"/>
+      <c r="C167" s="0"/>
+      <c r="F167" s="0"/>
+      <c r="G167" s="0"/>
     </row>
     <row r="168" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A168" s="1" t="n">
-        <f aca="false">A167+1</f>
-        <v>58</v>
+        <f aca="false">A166+1</f>
+        <v>54</v>
       </c>
       <c r="B168" s="0" t="s">
         <v>284</v>
@@ -4518,7 +4604,7 @@
         <v>285</v>
       </c>
       <c r="F168" s="1" t="s">
-        <v>154</v>
+        <v>159</v>
       </c>
       <c r="G168" s="1" t="n">
         <v>5</v>
@@ -4527,7 +4613,7 @@
     <row r="169" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A169" s="1" t="n">
         <f aca="false">A168+1</f>
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="B169" s="0" t="s">
         <v>286</v>
@@ -4536,16 +4622,16 @@
         <v>287</v>
       </c>
       <c r="F169" s="1" t="s">
-        <v>154</v>
+        <v>159</v>
       </c>
       <c r="G169" s="1" t="n">
-        <v>20</v>
+        <v>5</v>
       </c>
     </row>
     <row r="170" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A170" s="1" t="n">
         <f aca="false">A169+1</f>
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="B170" s="0" t="s">
         <v>288</v>
@@ -4554,16 +4640,16 @@
         <v>289</v>
       </c>
       <c r="F170" s="1" t="s">
-        <v>154</v>
+        <v>159</v>
       </c>
       <c r="G170" s="1" t="n">
-        <v>20</v>
+        <v>5</v>
       </c>
     </row>
     <row r="171" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A171" s="1" t="n">
         <f aca="false">A170+1</f>
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="B171" s="0" t="s">
         <v>290</v>
@@ -4572,16 +4658,16 @@
         <v>291</v>
       </c>
       <c r="F171" s="1" t="s">
-        <v>154</v>
+        <v>159</v>
       </c>
       <c r="G171" s="1" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="172" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A172" s="1" t="n">
         <f aca="false">A171+1</f>
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="B172" s="0" t="s">
         <v>292</v>
@@ -4590,16 +4676,16 @@
         <v>293</v>
       </c>
       <c r="F172" s="1" t="s">
-        <v>154</v>
+        <v>159</v>
       </c>
       <c r="G172" s="1" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="173" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A173" s="1" t="n">
         <f aca="false">A172+1</f>
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="B173" s="0" t="s">
         <v>294</v>
@@ -4608,16 +4694,16 @@
         <v>295</v>
       </c>
       <c r="F173" s="1" t="s">
-        <v>12</v>
+        <v>159</v>
       </c>
       <c r="G173" s="1" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
     </row>
     <row r="174" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A174" s="1" t="n">
         <f aca="false">A173+1</f>
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="B174" s="0" t="s">
         <v>296</v>
@@ -4626,16 +4712,16 @@
         <v>297</v>
       </c>
       <c r="F174" s="1" t="s">
-        <v>12</v>
+        <v>159</v>
       </c>
       <c r="G174" s="1" t="n">
-        <v>100</v>
+        <v>20</v>
       </c>
     </row>
     <row r="175" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A175" s="1" t="n">
         <f aca="false">A174+1</f>
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="B175" s="0" t="s">
         <v>298</v>
@@ -4644,9 +4730,81 @@
         <v>299</v>
       </c>
       <c r="F175" s="1" t="s">
-        <v>12</v>
+        <v>159</v>
       </c>
       <c r="G175" s="1" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="176" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A176" s="1" t="n">
+        <f aca="false">A175+1</f>
+        <v>62</v>
+      </c>
+      <c r="B176" s="0" t="s">
+        <v>300</v>
+      </c>
+      <c r="C176" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="F176" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="G176" s="1" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="177" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A177" s="1" t="n">
+        <f aca="false">A176+1</f>
+        <v>63</v>
+      </c>
+      <c r="B177" s="0" t="s">
+        <v>302</v>
+      </c>
+      <c r="C177" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="F177" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G177" s="1" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="178" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A178" s="1" t="n">
+        <f aca="false">A177+1</f>
+        <v>64</v>
+      </c>
+      <c r="B178" s="0" t="s">
+        <v>304</v>
+      </c>
+      <c r="C178" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="F178" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G178" s="1" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="179" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A179" s="1" t="n">
+        <f aca="false">A178+1</f>
+        <v>65</v>
+      </c>
+      <c r="B179" s="0" t="s">
+        <v>306</v>
+      </c>
+      <c r="C179" s="1" t="s">
+        <v>307</v>
+      </c>
+      <c r="F179" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G179" s="1" t="n">
         <v>200</v>
       </c>
     </row>

--- a/04 ЭОМ СС/спецификация.xlsx
+++ b/04 ЭОМ СС/спецификация.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="990" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="992" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" state="visible" r:id="rId2"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="586" uniqueCount="308">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="590" uniqueCount="308">
   <si>
     <t xml:space="preserve">Позиция</t>
   </si>
@@ -423,7 +423,7 @@
     <t xml:space="preserve">Светодиод с держателем желтый 12V</t>
   </si>
   <si>
-    <t xml:space="preserve">Системы безопасности</t>
+    <t xml:space="preserve">Система безопасности</t>
   </si>
   <si>
     <t xml:space="preserve">Аудиодомофон</t>
@@ -1052,7 +1052,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1118,6 +1118,10 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1202,23 +1206,24 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="true"/>
   </sheetPr>
-  <dimension ref="A1:I179"/>
+  <dimension ref="A1:I181"/>
   <sheetViews>
     <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A61" activePane="bottomLeft" state="frozen"/>
+      <pane xSplit="0" ySplit="1" topLeftCell="A58" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="C77" activeCellId="0" sqref="C77"/>
+      <selection pane="bottomLeft" activeCell="B64" activeCellId="0" sqref="B64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="9.31632653061224"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="43.7397959183673"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="12.8265306122449"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="12.2857142857143"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="12.6887755102041"/>
-    <col collapsed="false" hidden="false" max="7" min="6" style="1" width="9.31632653061224"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="7.29081632653061"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="9.17857142857143"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="43.1989795918367"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="12.6887755102041"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="12.1479591836735"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="12.5561224489796"/>
+    <col collapsed="false" hidden="false" max="7" min="6" style="1" width="9.17857142857143"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="7.1530612244898"/>
+    <col collapsed="false" hidden="false" max="1025" min="9" style="0" width="8.50510204081633"/>
   </cols>
   <sheetData>
     <row r="1" s="3" customFormat="true" ht="67.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1255,6 +1260,7 @@
       </c>
       <c r="C2" s="0"/>
       <c r="D2" s="0"/>
+      <c r="E2" s="0"/>
       <c r="F2" s="0"/>
       <c r="G2" s="0"/>
       <c r="H2" s="0"/>
@@ -1450,6 +1456,7 @@
       </c>
       <c r="C12" s="0"/>
       <c r="D12" s="0"/>
+      <c r="E12" s="0"/>
       <c r="F12" s="0"/>
       <c r="G12" s="0"/>
       <c r="H12" s="0"/>
@@ -1968,6 +1975,7 @@
       </c>
       <c r="C35" s="0"/>
       <c r="D35" s="0"/>
+      <c r="E35" s="0"/>
       <c r="F35" s="0"/>
       <c r="G35" s="0"/>
       <c r="H35" s="0"/>
@@ -2050,6 +2058,7 @@
       </c>
       <c r="C39" s="0"/>
       <c r="D39" s="0"/>
+      <c r="E39" s="0"/>
       <c r="F39" s="1" t="s">
         <v>12</v>
       </c>
@@ -2065,6 +2074,7 @@
       </c>
       <c r="C40" s="0"/>
       <c r="D40" s="0"/>
+      <c r="E40" s="0"/>
       <c r="F40" s="0"/>
       <c r="G40" s="0"/>
       <c r="H40" s="0"/>
@@ -2639,6 +2649,7 @@
       </c>
       <c r="C68" s="0"/>
       <c r="D68" s="0"/>
+      <c r="E68" s="0"/>
       <c r="F68" s="1" t="s">
         <v>12</v>
       </c>
@@ -2657,6 +2668,7 @@
       </c>
       <c r="C69" s="0"/>
       <c r="D69" s="0"/>
+      <c r="E69" s="0"/>
       <c r="F69" s="1" t="s">
         <v>12</v>
       </c>
@@ -2675,6 +2687,7 @@
       </c>
       <c r="C70" s="0"/>
       <c r="D70" s="0"/>
+      <c r="E70" s="0"/>
       <c r="F70" s="1" t="s">
         <v>12</v>
       </c>
@@ -2690,6 +2703,7 @@
       </c>
       <c r="C71" s="0"/>
       <c r="D71" s="0"/>
+      <c r="E71" s="0"/>
       <c r="F71" s="0"/>
       <c r="G71" s="16"/>
       <c r="H71" s="0"/>
@@ -2841,6 +2855,7 @@
       </c>
       <c r="C78" s="0"/>
       <c r="D78" s="0"/>
+      <c r="E78" s="0"/>
       <c r="F78" s="1" t="s">
         <v>12</v>
       </c>
@@ -2861,6 +2876,7 @@
         <v>158</v>
       </c>
       <c r="D79" s="0"/>
+      <c r="E79" s="0"/>
       <c r="F79" s="1" t="s">
         <v>159</v>
       </c>
@@ -2883,6 +2899,7 @@
         <v>162</v>
       </c>
       <c r="D80" s="0"/>
+      <c r="E80" s="0"/>
       <c r="F80" s="1" t="s">
         <v>159</v>
       </c>
@@ -2898,6 +2915,7 @@
       </c>
       <c r="C81" s="0"/>
       <c r="D81" s="0"/>
+      <c r="E81" s="0"/>
       <c r="F81" s="0"/>
       <c r="G81" s="0"/>
       <c r="H81" s="0"/>
@@ -3139,6 +3157,7 @@
       </c>
       <c r="C93" s="0"/>
       <c r="D93" s="0"/>
+      <c r="E93" s="0"/>
       <c r="F93" s="0"/>
       <c r="G93" s="0"/>
       <c r="H93" s="0"/>
@@ -3216,6 +3235,7 @@
       </c>
       <c r="C97" s="0"/>
       <c r="D97" s="0"/>
+      <c r="E97" s="0"/>
       <c r="F97" s="0"/>
       <c r="G97" s="0"/>
       <c r="H97" s="0"/>
@@ -3353,172 +3373,163 @@
       <c r="H103" s="5"/>
     </row>
     <row r="104" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A104" s="1" t="n">
+      <c r="A104" s="5" t="n">
         <v>7</v>
       </c>
-      <c r="B104" s="0" t="s">
+      <c r="B104" s="6" t="s">
+        <v>189</v>
+      </c>
+      <c r="C104" s="7"/>
+      <c r="D104" s="5"/>
+      <c r="E104" s="7"/>
+      <c r="F104" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G104" s="5" t="n">
+        <v>500</v>
+      </c>
+      <c r="H104" s="5"/>
+    </row>
+    <row r="105" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A105" s="5" t="n">
+        <v>8</v>
+      </c>
+      <c r="B105" s="6" t="s">
+        <v>190</v>
+      </c>
+      <c r="C105" s="7"/>
+      <c r="D105" s="5"/>
+      <c r="E105" s="7"/>
+      <c r="F105" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G105" s="5" t="n">
+        <v>50</v>
+      </c>
+      <c r="H105" s="5"/>
+    </row>
+    <row r="106" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A106" s="17" t="n">
+        <v>9</v>
+      </c>
+      <c r="B106" s="0" t="s">
         <v>192</v>
       </c>
-      <c r="C104" s="0"/>
-      <c r="D104" s="0"/>
-      <c r="F104" s="1" t="s">
+      <c r="C106" s="0"/>
+      <c r="D106" s="0"/>
+      <c r="E106" s="0"/>
+      <c r="F106" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="G104" s="1" t="n">
+      <c r="G106" s="1" t="n">
         <f aca="false">7+7+6+3+5+4+3</f>
         <v>35</v>
       </c>
-      <c r="H104" s="0"/>
-    </row>
-    <row r="105" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A105" s="0"/>
-      <c r="B105" s="4" t="s">
+      <c r="H106" s="0"/>
+    </row>
+    <row r="107" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A107" s="0"/>
+      <c r="B107" s="4" t="s">
         <v>193</v>
       </c>
-      <c r="C105" s="0"/>
-      <c r="D105" s="0"/>
-      <c r="F105" s="0"/>
-      <c r="G105" s="0"/>
-      <c r="H105" s="0"/>
-    </row>
-    <row r="106" customFormat="false" ht="23.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A106" s="5" t="n">
+      <c r="C107" s="0"/>
+      <c r="D107" s="0"/>
+      <c r="E107" s="0"/>
+      <c r="F107" s="0"/>
+      <c r="G107" s="0"/>
+      <c r="H107" s="0"/>
+    </row>
+    <row r="108" customFormat="false" ht="23.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A108" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="B106" s="6" t="s">
+      <c r="B108" s="6" t="s">
         <v>194</v>
       </c>
-      <c r="C106" s="7" t="s">
+      <c r="C108" s="7" t="s">
         <v>195</v>
       </c>
-      <c r="D106" s="5"/>
-      <c r="E106" s="7" t="s">
+      <c r="D108" s="5"/>
+      <c r="E108" s="7" t="s">
         <v>196</v>
       </c>
-      <c r="F106" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="G106" s="5" t="n">
+      <c r="F108" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G108" s="5" t="n">
         <v>100</v>
       </c>
-      <c r="H106" s="5"/>
-    </row>
-    <row r="107" customFormat="false" ht="23.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A107" s="5" t="n">
+      <c r="H108" s="5"/>
+    </row>
+    <row r="109" customFormat="false" ht="23.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A109" s="5" t="n">
         <v>2</v>
       </c>
-      <c r="B107" s="6" t="s">
+      <c r="B109" s="6" t="s">
         <v>197</v>
       </c>
-      <c r="C107" s="5" t="s">
+      <c r="C109" s="5" t="s">
         <v>198</v>
       </c>
-      <c r="D107" s="5"/>
-      <c r="E107" s="5" t="s">
+      <c r="D109" s="5"/>
+      <c r="E109" s="5" t="s">
         <v>196</v>
       </c>
-      <c r="F107" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="G107" s="17" t="n">
+      <c r="F109" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G109" s="18" t="n">
         <v>100</v>
       </c>
-      <c r="H107" s="5"/>
-    </row>
-    <row r="108" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A108" s="0"/>
-      <c r="B108" s="4" t="s">
+      <c r="H109" s="5"/>
+    </row>
+    <row r="110" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A110" s="0"/>
+      <c r="B110" s="4" t="s">
         <v>199</v>
       </c>
-      <c r="C108" s="0"/>
-      <c r="D108" s="0"/>
-      <c r="F108" s="0"/>
-      <c r="G108" s="0"/>
-    </row>
-    <row r="109" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A109" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B109" s="0" t="s">
-        <v>200</v>
-      </c>
-      <c r="C109" s="1" t="s">
-        <v>201</v>
-      </c>
-      <c r="D109" s="1" t="n">
-        <v>41856</v>
-      </c>
-      <c r="E109" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="F109" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="G109" s="1" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="110" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A110" s="1" t="n">
-        <f aca="false">A109+1</f>
-        <v>2</v>
-      </c>
-      <c r="B110" s="0" t="s">
-        <v>202</v>
-      </c>
-      <c r="C110" s="1" t="s">
-        <v>203</v>
-      </c>
-      <c r="D110" s="1" t="n">
-        <v>41863</v>
-      </c>
-      <c r="E110" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="F110" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="G110" s="1" t="n">
-        <v>2</v>
-      </c>
+      <c r="C110" s="0"/>
+      <c r="D110" s="0"/>
+      <c r="E110" s="0"/>
+      <c r="F110" s="0"/>
+      <c r="G110" s="0"/>
     </row>
     <row r="111" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A111" s="1" t="n">
-        <f aca="false">A110+1</f>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B111" s="0" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="C111" s="1" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="D111" s="1" t="n">
-        <v>62389</v>
+        <v>41856</v>
       </c>
       <c r="E111" s="1" t="s">
         <v>36</v>
       </c>
       <c r="F111" s="1" t="s">
-        <v>206</v>
+        <v>12</v>
       </c>
       <c r="G111" s="1" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="112" customFormat="false" ht="23.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="112" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A112" s="1" t="n">
         <f aca="false">A111+1</f>
-        <v>4</v>
-      </c>
-      <c r="B112" s="8" t="s">
-        <v>207</v>
+        <v>2</v>
+      </c>
+      <c r="B112" s="0" t="s">
+        <v>202</v>
       </c>
       <c r="C112" s="1" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="D112" s="1" t="n">
-        <v>41663</v>
+        <v>41863</v>
       </c>
       <c r="E112" s="1" t="s">
         <v>36</v>
@@ -3527,52 +3538,52 @@
         <v>12</v>
       </c>
       <c r="G112" s="1" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="113" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A113" s="1" t="n">
         <f aca="false">A112+1</f>
-        <v>5</v>
-      </c>
-      <c r="B113" s="8" t="s">
-        <v>209</v>
+        <v>3</v>
+      </c>
+      <c r="B113" s="0" t="s">
+        <v>204</v>
       </c>
       <c r="C113" s="1" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="D113" s="1" t="n">
-        <v>41693</v>
+        <v>62389</v>
       </c>
       <c r="E113" s="1" t="s">
         <v>36</v>
       </c>
       <c r="F113" s="1" t="s">
-        <v>12</v>
+        <v>206</v>
       </c>
       <c r="G113" s="1" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="114" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="114" customFormat="false" ht="23.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A114" s="1" t="n">
         <f aca="false">A113+1</f>
-        <v>6</v>
-      </c>
-      <c r="B114" s="0" t="s">
-        <v>211</v>
+        <v>4</v>
+      </c>
+      <c r="B114" s="8" t="s">
+        <v>207</v>
       </c>
       <c r="C114" s="1" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="D114" s="1" t="n">
-        <v>62308</v>
+        <v>41663</v>
       </c>
       <c r="E114" s="1" t="s">
         <v>36</v>
       </c>
       <c r="F114" s="1" t="s">
-        <v>206</v>
+        <v>12</v>
       </c>
       <c r="G114" s="1" t="n">
         <v>1</v>
@@ -3581,13 +3592,16 @@
     <row r="115" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A115" s="1" t="n">
         <f aca="false">A114+1</f>
-        <v>7</v>
-      </c>
-      <c r="B115" s="0" t="s">
-        <v>213</v>
+        <v>5</v>
+      </c>
+      <c r="B115" s="8" t="s">
+        <v>209</v>
       </c>
       <c r="C115" s="1" t="s">
-        <v>214</v>
+        <v>210</v>
+      </c>
+      <c r="D115" s="1" t="n">
+        <v>41693</v>
       </c>
       <c r="E115" s="1" t="s">
         <v>36</v>
@@ -3596,61 +3610,64 @@
         <v>12</v>
       </c>
       <c r="G115" s="1" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="116" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A116" s="1" t="n">
         <f aca="false">A115+1</f>
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B116" s="0" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="C116" s="1" t="s">
-        <v>216</v>
+        <v>212</v>
+      </c>
+      <c r="D116" s="1" t="n">
+        <v>62308</v>
       </c>
       <c r="E116" s="1" t="s">
         <v>36</v>
       </c>
       <c r="F116" s="1" t="s">
-        <v>12</v>
+        <v>206</v>
       </c>
       <c r="G116" s="1" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="117" customFormat="false" ht="23.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="117" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A117" s="1" t="n">
         <f aca="false">A116+1</f>
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B117" s="0" t="s">
-        <v>217</v>
-      </c>
-      <c r="C117" s="9" t="s">
-        <v>218</v>
+        <v>213</v>
+      </c>
+      <c r="C117" s="1" t="s">
+        <v>214</v>
       </c>
       <c r="E117" s="1" t="s">
-        <v>219</v>
+        <v>36</v>
       </c>
       <c r="F117" s="1" t="s">
         <v>12</v>
       </c>
       <c r="G117" s="1" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="118" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A118" s="1" t="n">
         <f aca="false">A117+1</f>
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B118" s="0" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="C118" s="1" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="E118" s="1" t="s">
         <v>36</v>
@@ -3659,22 +3676,22 @@
         <v>12</v>
       </c>
       <c r="G118" s="1" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="119" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="119" customFormat="false" ht="23.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A119" s="1" t="n">
         <f aca="false">A118+1</f>
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B119" s="0" t="s">
-        <v>222</v>
-      </c>
-      <c r="C119" s="1" t="s">
-        <v>223</v>
+        <v>217</v>
+      </c>
+      <c r="C119" s="9" t="s">
+        <v>218</v>
       </c>
       <c r="E119" s="1" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="F119" s="1" t="s">
         <v>12</v>
@@ -3684,63 +3701,64 @@
       </c>
     </row>
     <row r="120" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A120" s="0"/>
-      <c r="C120" s="0"/>
-      <c r="F120" s="0"/>
-      <c r="G120" s="0"/>
+      <c r="A120" s="1" t="n">
+        <f aca="false">A119+1</f>
+        <v>10</v>
+      </c>
+      <c r="B120" s="0" t="s">
+        <v>220</v>
+      </c>
+      <c r="C120" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="E120" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="F120" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G120" s="1" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="121" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A121" s="1" t="n">
-        <f aca="false">A119+1</f>
-        <v>12</v>
+        <f aca="false">A120+1</f>
+        <v>11</v>
       </c>
       <c r="B121" s="0" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="C121" s="1" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="E121" s="1" t="s">
-        <v>36</v>
+        <v>224</v>
       </c>
       <c r="F121" s="1" t="s">
         <v>12</v>
       </c>
       <c r="G121" s="1" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
     </row>
     <row r="122" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A122" s="1" t="n">
-        <f aca="false">A121+1</f>
-        <v>13</v>
-      </c>
-      <c r="B122" s="0" t="s">
-        <v>225</v>
-      </c>
-      <c r="C122" s="1" t="s">
-        <v>227</v>
-      </c>
-      <c r="E122" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="F122" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="G122" s="1" t="n">
-        <v>12</v>
-      </c>
+      <c r="A122" s="0"/>
+      <c r="C122" s="0"/>
+      <c r="E122" s="0"/>
+      <c r="F122" s="0"/>
+      <c r="G122" s="0"/>
     </row>
     <row r="123" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A123" s="1" t="n">
-        <f aca="false">A122+1</f>
-        <v>14</v>
+        <f aca="false">A121+1</f>
+        <v>12</v>
       </c>
       <c r="B123" s="0" t="s">
         <v>225</v>
       </c>
       <c r="C123" s="1" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="E123" s="1" t="s">
         <v>36</v>
@@ -3749,19 +3767,19 @@
         <v>12</v>
       </c>
       <c r="G123" s="1" t="n">
-        <v>3</v>
+        <v>9</v>
       </c>
     </row>
     <row r="124" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A124" s="1" t="n">
         <f aca="false">A123+1</f>
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B124" s="0" t="s">
         <v>225</v>
       </c>
       <c r="C124" s="1" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="E124" s="1" t="s">
         <v>36</v>
@@ -3770,19 +3788,19 @@
         <v>12</v>
       </c>
       <c r="G124" s="1" t="n">
-        <v>3</v>
+        <v>12</v>
       </c>
     </row>
     <row r="125" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A125" s="1" t="n">
         <f aca="false">A124+1</f>
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B125" s="0" t="s">
         <v>225</v>
       </c>
       <c r="C125" s="1" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="E125" s="1" t="s">
         <v>36</v>
@@ -3791,19 +3809,19 @@
         <v>12</v>
       </c>
       <c r="G125" s="1" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="126" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A126" s="1" t="n">
         <f aca="false">A125+1</f>
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B126" s="0" t="s">
         <v>225</v>
       </c>
       <c r="C126" s="1" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="E126" s="1" t="s">
         <v>36</v>
@@ -3812,25 +3830,40 @@
         <v>12</v>
       </c>
       <c r="G126" s="1" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="127" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A127" s="0"/>
-      <c r="C127" s="0"/>
-      <c r="F127" s="0"/>
-      <c r="G127" s="0"/>
+      <c r="A127" s="1" t="n">
+        <f aca="false">A126+1</f>
+        <v>16</v>
+      </c>
+      <c r="B127" s="0" t="s">
+        <v>225</v>
+      </c>
+      <c r="C127" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="E127" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="F127" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G127" s="1" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="128" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A128" s="1" t="n">
-        <f aca="false">A126+1</f>
-        <v>18</v>
+        <f aca="false">A127+1</f>
+        <v>17</v>
       </c>
       <c r="B128" s="0" t="s">
-        <v>232</v>
+        <v>225</v>
       </c>
       <c r="C128" s="1" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="E128" s="1" t="s">
         <v>36</v>
@@ -3839,40 +3872,26 @@
         <v>12</v>
       </c>
       <c r="G128" s="1" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="129" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A129" s="1" t="n">
-        <f aca="false">A128+1</f>
-        <v>19</v>
-      </c>
-      <c r="B129" s="0" t="s">
-        <v>232</v>
-      </c>
-      <c r="C129" s="1" t="s">
-        <v>234</v>
-      </c>
-      <c r="E129" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="F129" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="G129" s="1" t="n">
-        <v>10</v>
-      </c>
+      <c r="A129" s="0"/>
+      <c r="C129" s="0"/>
+      <c r="E129" s="0"/>
+      <c r="F129" s="0"/>
+      <c r="G129" s="0"/>
     </row>
     <row r="130" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A130" s="1" t="n">
-        <f aca="false">A129+1</f>
-        <v>20</v>
+        <f aca="false">A128+1</f>
+        <v>18</v>
       </c>
       <c r="B130" s="0" t="s">
         <v>232</v>
       </c>
       <c r="C130" s="1" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="E130" s="1" t="s">
         <v>36</v>
@@ -3887,13 +3906,13 @@
     <row r="131" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A131" s="1" t="n">
         <f aca="false">A130+1</f>
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B131" s="0" t="s">
         <v>232</v>
       </c>
       <c r="C131" s="1" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="E131" s="1" t="s">
         <v>36</v>
@@ -3902,19 +3921,19 @@
         <v>12</v>
       </c>
       <c r="G131" s="1" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
     </row>
     <row r="132" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A132" s="1" t="n">
         <f aca="false">A131+1</f>
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B132" s="0" t="s">
         <v>232</v>
       </c>
       <c r="C132" s="1" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="E132" s="1" t="s">
         <v>36</v>
@@ -3923,25 +3942,40 @@
         <v>12</v>
       </c>
       <c r="G132" s="1" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="133" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A133" s="0"/>
-      <c r="C133" s="0"/>
-      <c r="F133" s="0"/>
-      <c r="G133" s="0"/>
+      <c r="A133" s="1" t="n">
+        <f aca="false">A132+1</f>
+        <v>21</v>
+      </c>
+      <c r="B133" s="0" t="s">
+        <v>232</v>
+      </c>
+      <c r="C133" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="E133" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="F133" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G133" s="1" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="134" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A134" s="1" t="n">
-        <f aca="false">A132+1</f>
-        <v>23</v>
+        <f aca="false">A133+1</f>
+        <v>22</v>
       </c>
       <c r="B134" s="0" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
       <c r="C134" s="1" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="E134" s="1" t="s">
         <v>36</v>
@@ -3950,77 +3984,70 @@
         <v>12</v>
       </c>
       <c r="G134" s="1" t="n">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="135" customFormat="false" ht="25.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A135" s="1" t="n">
-        <f aca="false">A134+1</f>
-        <v>24</v>
-      </c>
-      <c r="B135" s="0" t="s">
-        <v>238</v>
-      </c>
-      <c r="C135" s="9" t="s">
-        <v>240</v>
-      </c>
-      <c r="E135" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="F135" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="G135" s="1" t="n">
         <v>3</v>
       </c>
+    </row>
+    <row r="135" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A135" s="0"/>
+      <c r="C135" s="0"/>
+      <c r="E135" s="0"/>
+      <c r="F135" s="0"/>
+      <c r="G135" s="0"/>
     </row>
     <row r="136" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A136" s="1" t="n">
-        <f aca="false">A135+1</f>
-        <v>25</v>
+        <f aca="false">A134+1</f>
+        <v>23</v>
       </c>
       <c r="B136" s="0" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="C136" s="1" t="s">
-        <v>242</v>
+        <v>239</v>
+      </c>
+      <c r="E136" s="1" t="s">
+        <v>36</v>
       </c>
       <c r="F136" s="1" t="s">
         <v>12</v>
       </c>
       <c r="G136" s="1" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="137" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="137" customFormat="false" ht="25.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A137" s="1" t="n">
         <f aca="false">A136+1</f>
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B137" s="0" t="s">
-        <v>243</v>
-      </c>
-      <c r="C137" s="1" t="s">
-        <v>244</v>
+        <v>238</v>
+      </c>
+      <c r="C137" s="9" t="s">
+        <v>240</v>
+      </c>
+      <c r="E137" s="1" t="s">
+        <v>36</v>
       </c>
       <c r="F137" s="1" t="s">
         <v>12</v>
       </c>
       <c r="G137" s="1" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="138" customFormat="false" ht="23.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="138" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A138" s="1" t="n">
         <f aca="false">A137+1</f>
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B138" s="0" t="s">
-        <v>153</v>
-      </c>
-      <c r="C138" s="9" t="s">
-        <v>245</v>
-      </c>
+        <v>241</v>
+      </c>
+      <c r="C138" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="E138" s="0"/>
       <c r="F138" s="1" t="s">
         <v>12</v>
       </c>
@@ -4031,38 +4058,34 @@
     <row r="139" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A139" s="1" t="n">
         <f aca="false">A138+1</f>
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B139" s="0" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="C139" s="1" t="s">
-        <v>247</v>
-      </c>
-      <c r="E139" s="1" t="s">
-        <v>36</v>
-      </c>
+        <v>244</v>
+      </c>
+      <c r="E139" s="0"/>
       <c r="F139" s="1" t="s">
         <v>12</v>
       </c>
       <c r="G139" s="1" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="140" customFormat="false" ht="35.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="140" customFormat="false" ht="23.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A140" s="1" t="n">
         <f aca="false">A139+1</f>
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B140" s="0" t="s">
-        <v>248</v>
+        <v>153</v>
       </c>
       <c r="C140" s="9" t="s">
-        <v>249</v>
-      </c>
-      <c r="E140" s="1" t="s">
-        <v>250</v>
-      </c>
+        <v>245</v>
+      </c>
+      <c r="E140" s="0"/>
       <c r="F140" s="1" t="s">
         <v>12</v>
       </c>
@@ -4071,24 +4094,39 @@
       </c>
     </row>
     <row r="141" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A141" s="0"/>
-      <c r="C141" s="9"/>
-      <c r="F141" s="0"/>
-      <c r="G141" s="0"/>
-    </row>
-    <row r="142" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A141" s="1" t="n">
+        <f aca="false">A140+1</f>
+        <v>28</v>
+      </c>
+      <c r="B141" s="0" t="s">
+        <v>246</v>
+      </c>
+      <c r="C141" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="E141" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="F141" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G141" s="1" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="142" customFormat="false" ht="35.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A142" s="1" t="n">
-        <f aca="false">A140+1</f>
-        <v>30</v>
+        <f aca="false">A141+1</f>
+        <v>29</v>
       </c>
       <c r="B142" s="0" t="s">
-        <v>251</v>
-      </c>
-      <c r="C142" s="1" t="s">
-        <v>252</v>
+        <v>248</v>
+      </c>
+      <c r="C142" s="9" t="s">
+        <v>249</v>
       </c>
       <c r="E142" s="1" t="s">
-        <v>36</v>
+        <v>250</v>
       </c>
       <c r="F142" s="1" t="s">
         <v>12</v>
@@ -4098,36 +4136,22 @@
       </c>
     </row>
     <row r="143" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A143" s="1" t="n">
-        <f aca="false">A142+1</f>
-        <v>31</v>
-      </c>
-      <c r="B143" s="0" t="s">
-        <v>251</v>
-      </c>
-      <c r="C143" s="1" t="s">
-        <v>253</v>
-      </c>
-      <c r="E143" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="F143" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="G143" s="1" t="n">
-        <v>1</v>
-      </c>
+      <c r="A143" s="0"/>
+      <c r="C143" s="9"/>
+      <c r="E143" s="0"/>
+      <c r="F143" s="0"/>
+      <c r="G143" s="0"/>
     </row>
     <row r="144" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A144" s="1" t="n">
-        <f aca="false">A143+1</f>
-        <v>32</v>
+        <f aca="false">A142+1</f>
+        <v>30</v>
       </c>
       <c r="B144" s="0" t="s">
         <v>251</v>
       </c>
       <c r="C144" s="1" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="E144" s="1" t="s">
         <v>36</v>
@@ -4142,13 +4166,13 @@
     <row r="145" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A145" s="1" t="n">
         <f aca="false">A144+1</f>
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B145" s="0" t="s">
         <v>251</v>
       </c>
       <c r="C145" s="1" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="E145" s="1" t="s">
         <v>36</v>
@@ -4157,19 +4181,19 @@
         <v>12</v>
       </c>
       <c r="G145" s="1" t="n">
-        <v>65</v>
+        <v>1</v>
       </c>
     </row>
     <row r="146" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A146" s="1" t="n">
         <f aca="false">A145+1</f>
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B146" s="0" t="s">
         <v>251</v>
       </c>
       <c r="C146" s="1" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="E146" s="1" t="s">
         <v>36</v>
@@ -4178,19 +4202,19 @@
         <v>12</v>
       </c>
       <c r="G146" s="1" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="147" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A147" s="1" t="n">
         <f aca="false">A146+1</f>
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B147" s="0" t="s">
         <v>251</v>
       </c>
       <c r="C147" s="1" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="E147" s="1" t="s">
         <v>36</v>
@@ -4199,19 +4223,19 @@
         <v>12</v>
       </c>
       <c r="G147" s="1" t="n">
-        <v>46</v>
+        <v>65</v>
       </c>
     </row>
     <row r="148" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A148" s="1" t="n">
         <f aca="false">A147+1</f>
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B148" s="0" t="s">
         <v>251</v>
       </c>
       <c r="C148" s="1" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="E148" s="1" t="s">
         <v>36</v>
@@ -4226,13 +4250,13 @@
     <row r="149" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A149" s="1" t="n">
         <f aca="false">A148+1</f>
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B149" s="0" t="s">
         <v>251</v>
       </c>
       <c r="C149" s="1" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="E149" s="1" t="s">
         <v>36</v>
@@ -4241,19 +4265,19 @@
         <v>12</v>
       </c>
       <c r="G149" s="1" t="n">
-        <v>23</v>
+        <v>46</v>
       </c>
     </row>
     <row r="150" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A150" s="1" t="n">
         <f aca="false">A149+1</f>
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B150" s="0" t="s">
         <v>251</v>
       </c>
       <c r="C150" s="1" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="E150" s="1" t="s">
         <v>36</v>
@@ -4262,19 +4286,19 @@
         <v>12</v>
       </c>
       <c r="G150" s="1" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
     </row>
     <row r="151" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A151" s="1" t="n">
         <f aca="false">A150+1</f>
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B151" s="0" t="s">
         <v>251</v>
       </c>
       <c r="C151" s="1" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="E151" s="1" t="s">
         <v>36</v>
@@ -4283,19 +4307,19 @@
         <v>12</v>
       </c>
       <c r="G151" s="1" t="n">
-        <v>2</v>
+        <v>23</v>
       </c>
     </row>
     <row r="152" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A152" s="1" t="n">
         <f aca="false">A151+1</f>
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B152" s="0" t="s">
-        <v>262</v>
+        <v>251</v>
       </c>
       <c r="C152" s="1" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="E152" s="1" t="s">
         <v>36</v>
@@ -4304,19 +4328,19 @@
         <v>12</v>
       </c>
       <c r="G152" s="1" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="153" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A153" s="1" t="n">
         <f aca="false">A152+1</f>
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B153" s="0" t="s">
-        <v>262</v>
+        <v>251</v>
       </c>
       <c r="C153" s="1" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="E153" s="1" t="s">
         <v>36</v>
@@ -4325,19 +4349,19 @@
         <v>12</v>
       </c>
       <c r="G153" s="1" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
     </row>
     <row r="154" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A154" s="1" t="n">
         <f aca="false">A153+1</f>
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B154" s="0" t="s">
         <v>262</v>
       </c>
       <c r="C154" s="1" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="E154" s="1" t="s">
         <v>36</v>
@@ -4346,19 +4370,19 @@
         <v>12</v>
       </c>
       <c r="G154" s="1" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="155" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A155" s="1" t="n">
         <f aca="false">A154+1</f>
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B155" s="0" t="s">
         <v>262</v>
       </c>
       <c r="C155" s="1" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="E155" s="1" t="s">
         <v>36</v>
@@ -4367,19 +4391,19 @@
         <v>12</v>
       </c>
       <c r="G155" s="1" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="156" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A156" s="1" t="n">
         <f aca="false">A155+1</f>
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B156" s="0" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
       <c r="C156" s="1" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="E156" s="1" t="s">
         <v>36</v>
@@ -4388,19 +4412,19 @@
         <v>12</v>
       </c>
       <c r="G156" s="1" t="n">
-        <v>13</v>
+        <v>3</v>
       </c>
     </row>
     <row r="157" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A157" s="1" t="n">
         <f aca="false">A156+1</f>
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B157" s="0" t="s">
-        <v>269</v>
-      </c>
-      <c r="C157" s="1" t="n">
-        <v>12541</v>
+        <v>262</v>
+      </c>
+      <c r="C157" s="1" t="s">
+        <v>266</v>
       </c>
       <c r="E157" s="1" t="s">
         <v>36</v>
@@ -4409,19 +4433,19 @@
         <v>12</v>
       </c>
       <c r="G157" s="1" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="158" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A158" s="1" t="n">
         <f aca="false">A157+1</f>
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B158" s="0" t="s">
-        <v>270</v>
-      </c>
-      <c r="C158" s="1" t="n">
-        <v>12535</v>
+        <v>267</v>
+      </c>
+      <c r="C158" s="1" t="s">
+        <v>268</v>
       </c>
       <c r="E158" s="1" t="s">
         <v>36</v>
@@ -4430,40 +4454,40 @@
         <v>12</v>
       </c>
       <c r="G158" s="1" t="n">
-        <v>2</v>
+        <v>13</v>
       </c>
     </row>
     <row r="159" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A159" s="1" t="n">
         <f aca="false">A158+1</f>
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B159" s="0" t="s">
-        <v>271</v>
-      </c>
-      <c r="C159" s="1" t="s">
-        <v>272</v>
+        <v>269</v>
+      </c>
+      <c r="C159" s="1" t="n">
+        <v>12541</v>
       </c>
       <c r="E159" s="1" t="s">
-        <v>273</v>
+        <v>36</v>
       </c>
       <c r="F159" s="1" t="s">
         <v>12</v>
       </c>
       <c r="G159" s="1" t="n">
-        <v>25</v>
+        <v>2</v>
       </c>
     </row>
     <row r="160" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A160" s="1" t="n">
         <f aca="false">A159+1</f>
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B160" s="0" t="s">
-        <v>274</v>
-      </c>
-      <c r="C160" s="1" t="s">
-        <v>275</v>
+        <v>270</v>
+      </c>
+      <c r="C160" s="1" t="n">
+        <v>12535</v>
       </c>
       <c r="E160" s="1" t="s">
         <v>36</v>
@@ -4472,46 +4496,61 @@
         <v>12</v>
       </c>
       <c r="G160" s="1" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
     </row>
     <row r="161" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A161" s="1" t="n">
         <f aca="false">A160+1</f>
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B161" s="0" t="s">
+        <v>271</v>
+      </c>
+      <c r="C161" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="E161" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="F161" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G161" s="1" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="162" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A162" s="1" t="n">
+        <f aca="false">A161+1</f>
+        <v>48</v>
+      </c>
+      <c r="B162" s="0" t="s">
         <v>274</v>
       </c>
-      <c r="C161" s="1" t="s">
-        <v>276</v>
-      </c>
-      <c r="E161" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="F161" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="G161" s="1" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="162" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A162" s="0"/>
-      <c r="C162" s="0"/>
-      <c r="F162" s="0"/>
-      <c r="G162" s="0"/>
+      <c r="C162" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="E162" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="F162" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G162" s="1" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="163" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A163" s="1" t="n">
-        <f aca="false">A161+1</f>
-        <v>50</v>
+        <f aca="false">A162+1</f>
+        <v>49</v>
       </c>
       <c r="B163" s="0" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="C163" s="1" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="E163" s="1" t="s">
         <v>36</v>
@@ -4520,40 +4559,26 @@
         <v>12</v>
       </c>
       <c r="G163" s="1" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="164" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A164" s="1" t="n">
-        <f aca="false">A163+1</f>
-        <v>51</v>
-      </c>
-      <c r="B164" s="0" t="s">
-        <v>279</v>
-      </c>
-      <c r="C164" s="9" t="s">
-        <v>280</v>
-      </c>
-      <c r="E164" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="F164" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="G164" s="1" t="n">
-        <v>6</v>
-      </c>
+      <c r="A164" s="0"/>
+      <c r="C164" s="0"/>
+      <c r="E164" s="0"/>
+      <c r="F164" s="0"/>
+      <c r="G164" s="0"/>
     </row>
     <row r="165" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A165" s="1" t="n">
-        <f aca="false">A164+1</f>
-        <v>52</v>
+        <f aca="false">A163+1</f>
+        <v>50</v>
       </c>
       <c r="B165" s="0" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="C165" s="1" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="E165" s="1" t="s">
         <v>36</v>
@@ -4568,13 +4593,13 @@
     <row r="166" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A166" s="1" t="n">
         <f aca="false">A165+1</f>
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B166" s="0" t="s">
         <v>279</v>
       </c>
       <c r="C166" s="9" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="E166" s="1" t="s">
         <v>36</v>
@@ -4587,57 +4612,63 @@
       </c>
     </row>
     <row r="167" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A167" s="0"/>
-      <c r="C167" s="0"/>
-      <c r="F167" s="0"/>
-      <c r="G167" s="0"/>
+      <c r="A167" s="1" t="n">
+        <f aca="false">A166+1</f>
+        <v>52</v>
+      </c>
+      <c r="B167" s="0" t="s">
+        <v>281</v>
+      </c>
+      <c r="C167" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="E167" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="F167" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G167" s="1" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="168" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A168" s="1" t="n">
-        <f aca="false">A166+1</f>
-        <v>54</v>
+        <f aca="false">A167+1</f>
+        <v>53</v>
       </c>
       <c r="B168" s="0" t="s">
-        <v>284</v>
-      </c>
-      <c r="C168" s="1" t="s">
-        <v>285</v>
+        <v>279</v>
+      </c>
+      <c r="C168" s="9" t="s">
+        <v>283</v>
+      </c>
+      <c r="E168" s="1" t="s">
+        <v>36</v>
       </c>
       <c r="F168" s="1" t="s">
-        <v>159</v>
+        <v>12</v>
       </c>
       <c r="G168" s="1" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="169" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A169" s="1" t="n">
-        <f aca="false">A168+1</f>
-        <v>55</v>
-      </c>
-      <c r="B169" s="0" t="s">
-        <v>286</v>
-      </c>
-      <c r="C169" s="1" t="s">
-        <v>287</v>
-      </c>
-      <c r="F169" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="G169" s="1" t="n">
-        <v>5</v>
-      </c>
+      <c r="A169" s="0"/>
+      <c r="C169" s="0"/>
+      <c r="F169" s="0"/>
+      <c r="G169" s="0"/>
     </row>
     <row r="170" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A170" s="1" t="n">
-        <f aca="false">A169+1</f>
-        <v>56</v>
+        <f aca="false">A168+1</f>
+        <v>54</v>
       </c>
       <c r="B170" s="0" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="C170" s="1" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="F170" s="1" t="s">
         <v>159</v>
@@ -4649,13 +4680,13 @@
     <row r="171" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A171" s="1" t="n">
         <f aca="false">A170+1</f>
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B171" s="0" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="C171" s="1" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="F171" s="1" t="s">
         <v>159</v>
@@ -4667,13 +4698,13 @@
     <row r="172" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A172" s="1" t="n">
         <f aca="false">A171+1</f>
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B172" s="0" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="C172" s="1" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="F172" s="1" t="s">
         <v>159</v>
@@ -4685,88 +4716,88 @@
     <row r="173" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A173" s="1" t="n">
         <f aca="false">A172+1</f>
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B173" s="0" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="C173" s="1" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="F173" s="1" t="s">
         <v>159</v>
       </c>
       <c r="G173" s="1" t="n">
-        <v>20</v>
+        <v>5</v>
       </c>
     </row>
     <row r="174" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A174" s="1" t="n">
         <f aca="false">A173+1</f>
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B174" s="0" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="C174" s="1" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="F174" s="1" t="s">
         <v>159</v>
       </c>
       <c r="G174" s="1" t="n">
-        <v>20</v>
+        <v>5</v>
       </c>
     </row>
     <row r="175" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A175" s="1" t="n">
         <f aca="false">A174+1</f>
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B175" s="0" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="C175" s="1" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="F175" s="1" t="s">
         <v>159</v>
       </c>
       <c r="G175" s="1" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
     </row>
     <row r="176" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A176" s="1" t="n">
         <f aca="false">A175+1</f>
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B176" s="0" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="C176" s="1" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="F176" s="1" t="s">
         <v>159</v>
       </c>
       <c r="G176" s="1" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
     </row>
     <row r="177" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A177" s="1" t="n">
         <f aca="false">A176+1</f>
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B177" s="0" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="C177" s="1" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="F177" s="1" t="s">
-        <v>12</v>
+        <v>159</v>
       </c>
       <c r="G177" s="1" t="n">
         <v>10</v>
@@ -4775,36 +4806,72 @@
     <row r="178" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A178" s="1" t="n">
         <f aca="false">A177+1</f>
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B178" s="0" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="C178" s="1" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="F178" s="1" t="s">
-        <v>12</v>
+        <v>159</v>
       </c>
       <c r="G178" s="1" t="n">
-        <v>100</v>
+        <v>10</v>
       </c>
     </row>
     <row r="179" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A179" s="1" t="n">
         <f aca="false">A178+1</f>
+        <v>63</v>
+      </c>
+      <c r="B179" s="0" t="s">
+        <v>302</v>
+      </c>
+      <c r="C179" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="F179" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G179" s="1" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="180" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A180" s="1" t="n">
+        <f aca="false">A179+1</f>
+        <v>64</v>
+      </c>
+      <c r="B180" s="0" t="s">
+        <v>304</v>
+      </c>
+      <c r="C180" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="F180" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G180" s="1" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="181" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A181" s="1" t="n">
+        <f aca="false">A180+1</f>
         <v>65</v>
       </c>
-      <c r="B179" s="0" t="s">
+      <c r="B181" s="0" t="s">
         <v>306</v>
       </c>
-      <c r="C179" s="1" t="s">
+      <c r="C181" s="1" t="s">
         <v>307</v>
       </c>
-      <c r="F179" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="G179" s="1" t="n">
+      <c r="F181" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G181" s="1" t="n">
         <v>200</v>
       </c>
     </row>

--- a/04 ЭОМ СС/спецификация.xlsx
+++ b/04 ЭОМ СС/спецификация.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="992" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="990" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" state="visible" r:id="rId2"/>
@@ -1052,7 +1052,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="18">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1118,10 +1118,6 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1209,21 +1205,21 @@
   <dimension ref="A1:I181"/>
   <sheetViews>
     <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A58" activePane="bottomLeft" state="frozen"/>
+      <pane xSplit="0" ySplit="1" topLeftCell="A64" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="B64" activeCellId="0" sqref="B64"/>
+      <selection pane="bottomLeft" activeCell="G80" activeCellId="0" sqref="G80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="9.17857142857143"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="43.1989795918367"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="12.6887755102041"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="12.1479591836735"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="12.5561224489796"/>
-    <col collapsed="false" hidden="false" max="7" min="6" style="1" width="9.17857142857143"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="7.1530612244898"/>
-    <col collapsed="false" hidden="false" max="1025" min="9" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="8.77551020408163"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="42.25"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="12.4183673469388"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="11.6071428571429"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="12.2857142857143"/>
+    <col collapsed="false" hidden="false" max="7" min="6" style="1" width="8.77551020408163"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="6.88265306122449"/>
+    <col collapsed="false" hidden="false" max="1025" min="9" style="0" width="8.23469387755102"/>
   </cols>
   <sheetData>
     <row r="1" s="3" customFormat="true" ht="67.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2881,7 +2877,7 @@
         <v>159</v>
       </c>
       <c r="G79" s="1" t="n">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="H79" s="0" t="s">
         <v>160</v>
@@ -3409,7 +3405,7 @@
       <c r="H105" s="5"/>
     </row>
     <row r="106" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A106" s="17" t="n">
+      <c r="A106" s="1" t="n">
         <v>9</v>
       </c>
       <c r="B106" s="0" t="s">
@@ -3478,7 +3474,7 @@
       <c r="F109" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="G109" s="18" t="n">
+      <c r="G109" s="17" t="n">
         <v>100</v>
       </c>
       <c r="H109" s="5"/>

--- a/04 ЭОМ СС/спецификация.xlsx
+++ b/04 ЭОМ СС/спецификация.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="989" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" state="visible" r:id="rId2"/>
@@ -869,10 +869,10 @@
     <t xml:space="preserve">RH-1</t>
   </si>
   <si>
-    <t xml:space="preserve">Реле напряжения</t>
-  </si>
-  <si>
-    <t xml:space="preserve">РН-104</t>
+    <t xml:space="preserve">Реле задержки времени</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RV-01</t>
   </si>
   <si>
     <t xml:space="preserve">«МОЛЛЮСК-12/1,3 DIN»</t>
@@ -1699,19 +1699,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="true"/>
   </sheetPr>
   <dimension ref="A1:IV223"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A179" activePane="bottomLeft" state="frozen"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="0" ySplit="1" topLeftCell="A146" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="A186" activeCellId="0" sqref="A186"/>
+      <selection pane="bottomLeft" activeCell="A167" activeCellId="0" sqref="167:167"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.65" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.2890625" defaultRowHeight="14.65" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="8.7"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="2" width="42.28"/>
@@ -1723,8 +1723,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="3" width="4.41"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="3" width="6.05"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="3" width="8.45"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="254" min="12" style="3" width="8.28"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="255" style="0" width="8.28"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="254" min="12" style="3" width="8.28"/>
   </cols>
   <sheetData>
     <row r="1" s="6" customFormat="true" ht="67.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4822,7 +4821,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="148" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="148" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A148" s="11" t="n">
         <f aca="false">A147+1</f>
         <v>27</v>
@@ -5127,7 +5126,7 @@
       <c r="C165" s="15"/>
       <c r="G165" s="25"/>
     </row>
-    <row r="166" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="166" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A166" s="11" t="n">
         <v>42</v>
       </c>
@@ -5147,23 +5146,26 @@
       </c>
       <c r="H166" s="11"/>
     </row>
-    <row r="167" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A167" s="1" t="n">
+    <row r="167" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A167" s="11" t="n">
         <f aca="false">A166+1</f>
         <v>43</v>
       </c>
-      <c r="B167" s="23" t="s">
+      <c r="B167" s="12" t="s">
         <v>301</v>
       </c>
-      <c r="C167" s="15"/>
-      <c r="F167" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="G167" s="25" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="168" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C167" s="11"/>
+      <c r="D167" s="11"/>
+      <c r="E167" s="11"/>
+      <c r="F167" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="G167" s="22" t="n">
+        <v>1</v>
+      </c>
+      <c r="H167" s="11"/>
+    </row>
+    <row r="168" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A168" s="1" t="n">
         <f aca="false">A167+1</f>
         <v>44</v>
@@ -6256,19 +6258,19 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="true"/>
   </sheetPr>
   <dimension ref="A1:IV31"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="A32" activeCellId="0" sqref="A32"/>
+      <selection pane="bottomLeft" activeCell="B37" activeCellId="1" sqref="167:167 B37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.65" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.2890625" defaultRowHeight="14.65" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="8.7"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="2" width="42.28"/>
@@ -6278,8 +6280,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="6" style="1" width="8.7"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="6.85"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="3" width="4.41"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="244" min="10" style="3" width="8.28"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="245" style="0" width="8.28"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="244" min="10" style="3" width="8.28"/>
   </cols>
   <sheetData>
     <row r="1" s="6" customFormat="true" ht="67.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">

--- a/04 ЭОМ СС/спецификация.xlsx
+++ b/04 ЭОМ СС/спецификация.xlsx
@@ -1706,12 +1706,12 @@
   <dimension ref="A1:IV223"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A146" activePane="bottomLeft" state="frozen"/>
+      <pane xSplit="0" ySplit="1" topLeftCell="A152" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="A167" activeCellId="0" sqref="167:167"/>
+      <selection pane="bottomLeft" activeCell="A158" activeCellId="0" sqref="158:159"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.2890625" defaultRowHeight="14.65" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.30078125" defaultRowHeight="14.65" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="8.7"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="2" width="42.28"/>
@@ -1917,7 +1917,7 @@
       </c>
       <c r="H9" s="11"/>
     </row>
-    <row r="10" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="11" t="n">
         <v>8</v>
       </c>
@@ -3026,22 +3026,24 @@
       </c>
       <c r="H61" s="11"/>
     </row>
-    <row r="62" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A62" s="1" t="n">
+    <row r="62" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A62" s="11" t="n">
         <f aca="false">A61+1</f>
         <v>2</v>
       </c>
-      <c r="B62" s="14" t="s">
+      <c r="B62" s="12" t="s">
         <v>132</v>
       </c>
-      <c r="C62" s="15"/>
-      <c r="E62" s="15"/>
-      <c r="F62" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="G62" s="1" t="n">
-        <v>1</v>
-      </c>
+      <c r="C62" s="13"/>
+      <c r="D62" s="11"/>
+      <c r="E62" s="13"/>
+      <c r="F62" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="G62" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="H62" s="11"/>
     </row>
     <row r="63" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="1" t="n">
@@ -4985,7 +4987,7 @@
     <row r="157" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C157" s="15"/>
     </row>
-    <row r="158" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="158" customFormat="false" ht="14.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A158" s="1" t="n">
         <v>35</v>
       </c>
@@ -5003,7 +5005,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="159" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="159" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A159" s="1" t="n">
         <f aca="false">A158+1</f>
         <v>36</v>
@@ -6265,12 +6267,12 @@
   <dimension ref="A1:IV31"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <pane xSplit="0" ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="B37" activeCellId="1" sqref="167:167 B37"/>
+      <selection pane="bottomLeft" activeCell="B37" activeCellId="1" sqref="158:159 B37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.2890625" defaultRowHeight="14.65" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.30078125" defaultRowHeight="14.65" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="8.7"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="2" width="42.28"/>
